--- a/data/Table of compounds.xlsx
+++ b/data/Table of compounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="530" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AFB7DBD-466B-4102-A5BB-7E62D86C13FD}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD785FF7-CF2F-4A46-B7A8-8CC1722FD92D}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Design" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="555">
   <si>
     <t>Samples</t>
   </si>
@@ -2729,7 +2729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3227,14 +3227,72 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3245,202 +3303,52 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -3455,62 +3363,153 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3974,23 +3973,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="B135" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="68.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.54296875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="68.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="35" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -4017,14 +4016,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="294" t="s">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="314" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="328" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="297"/>
+      <c r="C2" s="332"/>
       <c r="D2" s="4">
         <v>2</v>
       </c>
@@ -4040,10 +4039,10 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="295"/>
-      <c r="B3" s="325"/>
-      <c r="C3" s="363"/>
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="315"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="333"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -4059,10 +4058,10 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="295"/>
-      <c r="B4" s="325"/>
-      <c r="C4" s="363"/>
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="315"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="333"/>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
@@ -4078,10 +4077,10 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="295"/>
-      <c r="B5" s="325"/>
-      <c r="C5" s="363"/>
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="315"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="333"/>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
@@ -4097,10 +4096,10 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="295"/>
-      <c r="B6" s="325"/>
-      <c r="C6" s="363"/>
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="315"/>
+      <c r="B6" s="383"/>
+      <c r="C6" s="333"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
@@ -4116,10 +4115,10 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="295"/>
-      <c r="B7" s="325"/>
-      <c r="C7" s="363"/>
+    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="315"/>
+      <c r="B7" s="383"/>
+      <c r="C7" s="333"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4135,79 +4134,79 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="295"/>
-      <c r="B8" s="325"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="376" t="s">
+    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="315"/>
+      <c r="B8" s="383"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="376"/>
-      <c r="F8" s="376" t="s">
+      <c r="E8" s="299"/>
+      <c r="F8" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="376" t="s">
+      <c r="G8" s="299" t="s">
         <v>152</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I8" s="378" t="s">
+      <c r="I8" s="301" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="295"/>
-      <c r="B9" s="325"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
-      <c r="G9" s="377"/>
+    <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="315"/>
+      <c r="B9" s="383"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I9" s="379"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="295"/>
-      <c r="B10" s="325"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="382" t="s">
+      <c r="I9" s="302"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="315"/>
+      <c r="B10" s="383"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="384"/>
-      <c r="F10" s="382" t="s">
+      <c r="E10" s="309"/>
+      <c r="F10" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="382" t="s">
+      <c r="G10" s="307" t="s">
         <v>152</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I10" s="347" t="s">
+      <c r="I10" s="312" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="295"/>
-      <c r="B11" s="325"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="383"/>
-      <c r="E11" s="385"/>
-      <c r="F11" s="386"/>
-      <c r="G11" s="386"/>
+    <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="315"/>
+      <c r="B11" s="383"/>
+      <c r="C11" s="334"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="310"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="311"/>
       <c r="H11" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I11" s="348"/>
+      <c r="I11" s="313"/>
       <c r="J11" s="205"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="295"/>
-      <c r="B12" s="325"/>
-      <c r="C12" s="364"/>
+    <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="315"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="334"/>
       <c r="D12" s="204" t="s">
         <v>13</v>
       </c>
@@ -4224,10 +4223,10 @@
       <c r="I12" s="206"/>
       <c r="J12" s="205"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="295"/>
-      <c r="B13" s="326"/>
-      <c r="C13" s="365"/>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="315"/>
+      <c r="B13" s="384"/>
+      <c r="C13" s="335"/>
       <c r="D13" s="203" t="s">
         <v>13</v>
       </c>
@@ -4244,12 +4243,12 @@
       <c r="I13" s="207"/>
       <c r="J13" s="205"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="295"/>
-      <c r="B14" s="324" t="s">
+    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="315"/>
+      <c r="B14" s="328" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="297"/>
+      <c r="C14" s="332"/>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
@@ -4265,10 +4264,10 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="295"/>
-      <c r="B15" s="362"/>
-      <c r="C15" s="298"/>
+    <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="315"/>
+      <c r="B15" s="329"/>
+      <c r="C15" s="377"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -4284,10 +4283,10 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="295"/>
-      <c r="B16" s="362"/>
-      <c r="C16" s="298"/>
+    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="315"/>
+      <c r="B16" s="329"/>
+      <c r="C16" s="377"/>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4303,10 +4302,10 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="362"/>
-      <c r="C17" s="298"/>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="315"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="377"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
@@ -4322,10 +4321,10 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="362"/>
-      <c r="C18" s="298"/>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="315"/>
+      <c r="B18" s="329"/>
+      <c r="C18" s="377"/>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
@@ -4341,10 +4340,10 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="295"/>
-      <c r="B19" s="362"/>
-      <c r="C19" s="298"/>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="315"/>
+      <c r="B19" s="329"/>
+      <c r="C19" s="377"/>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4360,10 +4359,10 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="295"/>
-      <c r="B20" s="362"/>
-      <c r="C20" s="299"/>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="315"/>
+      <c r="B20" s="329"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="12" t="s">
         <v>18</v>
       </c>
@@ -4379,44 +4378,44 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="295"/>
-      <c r="B21" s="362"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="349" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="349"/>
-      <c r="F21" s="349" t="s">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="315"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="378"/>
+      <c r="D21" s="303" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="303"/>
+      <c r="F21" s="303" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="349" t="s">
+      <c r="G21" s="303" t="s">
         <v>152</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="I21" s="369" t="s">
+      <c r="I21" s="292" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="295"/>
-      <c r="B22" s="362"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="350"/>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="315"/>
+      <c r="B22" s="329"/>
+      <c r="C22" s="378"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
       <c r="H22" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="I22" s="370"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="295"/>
-      <c r="B23" s="362"/>
-      <c r="C23" s="299"/>
+      <c r="I22" s="293"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="315"/>
+      <c r="B23" s="329"/>
+      <c r="C23" s="378"/>
       <c r="D23" s="24" t="s">
         <v>18</v>
       </c>
@@ -4432,10 +4431,10 @@
       </c>
       <c r="I23" s="143"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="295"/>
-      <c r="B24" s="362"/>
-      <c r="C24" s="299"/>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="315"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="378"/>
       <c r="D24" s="142" t="s">
         <v>18</v>
       </c>
@@ -4451,10 +4450,10 @@
       </c>
       <c r="I24" s="144"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="295"/>
-      <c r="B25" s="362"/>
-      <c r="C25" s="299"/>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="315"/>
+      <c r="B25" s="329"/>
+      <c r="C25" s="378"/>
       <c r="D25" s="120" t="s">
         <v>19</v>
       </c>
@@ -4472,10 +4471,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="296"/>
-      <c r="B26" s="362"/>
-      <c r="C26" s="300"/>
+    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="316"/>
+      <c r="B26" s="329"/>
+      <c r="C26" s="379"/>
       <c r="D26" s="21" t="s">
         <v>18</v>
       </c>
@@ -4491,7 +4490,7 @@
       </c>
       <c r="I26" s="143"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="272"/>
       <c r="B27" s="279"/>
       <c r="C27" s="278"/>
@@ -4510,7 +4509,7 @@
       </c>
       <c r="I27" s="282"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="272"/>
       <c r="B28" s="279"/>
       <c r="C28" s="278"/>
@@ -4531,7 +4530,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="272"/>
       <c r="B29" s="279"/>
       <c r="C29" s="278"/>
@@ -4552,7 +4551,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="272"/>
       <c r="B30" s="279"/>
       <c r="C30" s="278"/>
@@ -4573,14 +4572,14 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="301" t="s">
+    <row r="31" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="380" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="307" t="s">
+      <c r="B31" s="330" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="291" t="s">
+      <c r="C31" s="374" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="122" t="s">
@@ -4602,10 +4601,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="302"/>
-      <c r="B32" s="308"/>
-      <c r="C32" s="292"/>
+    <row r="32" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="381"/>
+      <c r="B32" s="359"/>
+      <c r="C32" s="375"/>
       <c r="D32" s="125" t="s">
         <v>18</v>
       </c>
@@ -4623,10 +4622,10 @@
       </c>
       <c r="I32" s="127"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="302"/>
-      <c r="B33" s="308"/>
-      <c r="C33" s="292"/>
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="381"/>
+      <c r="B33" s="359"/>
+      <c r="C33" s="375"/>
       <c r="D33" s="128" t="s">
         <v>18</v>
       </c>
@@ -4644,10 +4643,10 @@
       </c>
       <c r="I33" s="129"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="302"/>
-      <c r="B34" s="308"/>
-      <c r="C34" s="292"/>
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="381"/>
+      <c r="B34" s="359"/>
+      <c r="C34" s="375"/>
       <c r="D34" s="128" t="s">
         <v>18</v>
       </c>
@@ -4665,10 +4664,10 @@
       </c>
       <c r="I34" s="129"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="302"/>
-      <c r="B35" s="308"/>
-      <c r="C35" s="292"/>
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="381"/>
+      <c r="B35" s="359"/>
+      <c r="C35" s="375"/>
       <c r="D35" s="128" t="s">
         <v>18</v>
       </c>
@@ -4686,10 +4685,10 @@
       </c>
       <c r="I35" s="129"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="302"/>
-      <c r="B36" s="308"/>
-      <c r="C36" s="292"/>
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="381"/>
+      <c r="B36" s="359"/>
+      <c r="C36" s="375"/>
       <c r="D36" s="128" t="s">
         <v>18</v>
       </c>
@@ -4707,10 +4706,10 @@
       </c>
       <c r="I36" s="129"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="302"/>
-      <c r="B37" s="308"/>
-      <c r="C37" s="292"/>
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="381"/>
+      <c r="B37" s="359"/>
+      <c r="C37" s="375"/>
       <c r="D37" s="128" t="s">
         <v>18</v>
       </c>
@@ -4728,10 +4727,10 @@
       </c>
       <c r="I37" s="129"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="302"/>
-      <c r="B38" s="308"/>
-      <c r="C38" s="292"/>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="381"/>
+      <c r="B38" s="359"/>
+      <c r="C38" s="375"/>
       <c r="D38" s="166" t="s">
         <v>18</v>
       </c>
@@ -4749,10 +4748,10 @@
       </c>
       <c r="I38" s="168"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="302"/>
-      <c r="B39" s="308"/>
-      <c r="C39" s="292"/>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="381"/>
+      <c r="B39" s="359"/>
+      <c r="C39" s="375"/>
       <c r="D39" s="166" t="s">
         <v>18</v>
       </c>
@@ -4765,15 +4764,17 @@
       <c r="G39" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H39" s="165"/>
+      <c r="H39" s="126" t="s">
+        <v>554</v>
+      </c>
       <c r="I39" s="193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="302"/>
-      <c r="B40" s="308"/>
-      <c r="C40" s="292"/>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="381"/>
+      <c r="B40" s="359"/>
+      <c r="C40" s="375"/>
       <c r="D40" s="166" t="s">
         <v>18</v>
       </c>
@@ -4786,15 +4787,17 @@
       <c r="G40" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H40" s="165"/>
+      <c r="H40" s="126" t="s">
+        <v>554</v>
+      </c>
       <c r="I40" s="193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="302"/>
-      <c r="B41" s="308"/>
-      <c r="C41" s="292"/>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="381"/>
+      <c r="B41" s="359"/>
+      <c r="C41" s="375"/>
       <c r="D41" s="166" t="s">
         <v>18</v>
       </c>
@@ -4807,15 +4810,17 @@
       <c r="G41" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H41" s="165"/>
+      <c r="H41" s="126" t="s">
+        <v>554</v>
+      </c>
       <c r="I41" s="193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="302"/>
-      <c r="B42" s="308"/>
-      <c r="C42" s="292"/>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="381"/>
+      <c r="B42" s="359"/>
+      <c r="C42" s="375"/>
       <c r="D42" s="166" t="s">
         <v>18</v>
       </c>
@@ -4828,15 +4833,17 @@
       <c r="G42" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H42" s="165"/>
+      <c r="H42" s="126" t="s">
+        <v>554</v>
+      </c>
       <c r="I42" s="193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="302"/>
-      <c r="B43" s="308"/>
-      <c r="C43" s="292"/>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="381"/>
+      <c r="B43" s="359"/>
+      <c r="C43" s="375"/>
       <c r="D43" s="166" t="s">
         <v>18</v>
       </c>
@@ -4849,15 +4856,17 @@
       <c r="G43" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H43" s="165"/>
+      <c r="H43" s="126" t="s">
+        <v>554</v>
+      </c>
       <c r="I43" s="193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="302"/>
-      <c r="B44" s="308"/>
-      <c r="C44" s="293"/>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="381"/>
+      <c r="B44" s="359"/>
+      <c r="C44" s="376"/>
       <c r="D44" s="166" t="s">
         <v>75</v>
       </c>
@@ -4870,14 +4879,16 @@
       <c r="G44" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H44" s="165"/>
+      <c r="H44" s="126" t="s">
+        <v>554</v>
+      </c>
       <c r="I44" s="193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="302"/>
-      <c r="B45" s="308"/>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="381"/>
+      <c r="B45" s="359"/>
       <c r="C45" s="138" t="s">
         <v>35</v>
       </c>
@@ -4900,9 +4911,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="302"/>
-      <c r="B46" s="308"/>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="381"/>
+      <c r="B46" s="359"/>
       <c r="C46" s="188" t="s">
         <v>213</v>
       </c>
@@ -4918,12 +4929,14 @@
       <c r="G46" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H46" s="285"/>
+      <c r="H46" s="285" t="s">
+        <v>554</v>
+      </c>
       <c r="I46" s="194"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="302"/>
-      <c r="B47" s="308"/>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="381"/>
+      <c r="B47" s="359"/>
       <c r="C47" s="188" t="s">
         <v>214</v>
       </c>
@@ -4939,12 +4952,14 @@
       <c r="G47" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="H47" s="138"/>
+      <c r="H47" s="138" t="s">
+        <v>554</v>
+      </c>
       <c r="I47" s="194"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="302"/>
-      <c r="B48" s="309"/>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="381"/>
+      <c r="B48" s="331"/>
       <c r="C48" s="165" t="s">
         <v>215</v>
       </c>
@@ -4960,11 +4975,13 @@
       <c r="G48" s="190" t="s">
         <v>199</v>
       </c>
-      <c r="H48" s="191"/>
+      <c r="H48" s="191" t="s">
+        <v>554</v>
+      </c>
       <c r="I48" s="195"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="302"/>
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="381"/>
       <c r="B49" s="271"/>
       <c r="C49" s="286" t="s">
         <v>370</v>
@@ -4981,15 +4998,17 @@
       <c r="G49" s="286" t="s">
         <v>541</v>
       </c>
-      <c r="H49" s="286"/>
+      <c r="H49" s="286" t="s">
+        <v>553</v>
+      </c>
       <c r="I49" s="287"/>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="302"/>
-      <c r="B50" s="307" t="s">
+    <row r="50" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="381"/>
+      <c r="B50" s="330" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="368" t="s">
+      <c r="C50" s="338" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="125" t="s">
@@ -5009,10 +5028,10 @@
       </c>
       <c r="I50" s="127"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="302"/>
-      <c r="B51" s="309"/>
-      <c r="C51" s="368"/>
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="381"/>
+      <c r="B51" s="331"/>
+      <c r="C51" s="338"/>
       <c r="D51" s="132" t="s">
         <v>18</v>
       </c>
@@ -5025,11 +5044,13 @@
       <c r="G51" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="134"/>
+      <c r="H51" s="134" t="s">
+        <v>554</v>
+      </c>
       <c r="I51" s="135"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="302"/>
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="381"/>
       <c r="B52" s="283"/>
       <c r="C52" s="284"/>
       <c r="D52" s="285" t="s">
@@ -5044,11 +5065,13 @@
       <c r="G52" s="286" t="s">
         <v>541</v>
       </c>
-      <c r="H52" s="286"/>
+      <c r="H52" s="286" t="s">
+        <v>553</v>
+      </c>
       <c r="I52" s="287"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="302"/>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="381"/>
       <c r="B53" s="283"/>
       <c r="C53" s="169" t="s">
         <v>144</v>
@@ -5065,11 +5088,13 @@
       <c r="G53" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="138"/>
+      <c r="H53" s="138" t="s">
+        <v>554</v>
+      </c>
       <c r="I53" s="196"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="303"/>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="382"/>
       <c r="B54" s="170" t="s">
         <v>147</v>
       </c>
@@ -5088,7 +5113,9 @@
       <c r="G54" s="286" t="s">
         <v>541</v>
       </c>
-      <c r="H54" s="286"/>
+      <c r="H54" s="286" t="s">
+        <v>553</v>
+      </c>
       <c r="I54" s="287"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -5096,7 +5123,7 @@
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="28" t="s">
         <v>43</v>
       </c>
@@ -5123,12 +5150,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="310" t="s">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="360" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="174"/>
-      <c r="C56" s="327" t="s">
+      <c r="C56" s="385" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="63" t="s">
@@ -5143,13 +5170,15 @@
       <c r="G56" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="65"/>
+      <c r="H56" s="65" t="s">
+        <v>554</v>
+      </c>
       <c r="I56" s="197"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="311"/>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="361"/>
       <c r="B57" s="174"/>
-      <c r="C57" s="328"/>
+      <c r="C57" s="386"/>
       <c r="D57" s="66" t="s">
         <v>18</v>
       </c>
@@ -5167,10 +5196,10 @@
       </c>
       <c r="I57" s="198"/>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="311"/>
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="361"/>
       <c r="B58" s="174"/>
-      <c r="C58" s="327" t="s">
+      <c r="C58" s="385" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="63" t="s">
@@ -5190,10 +5219,10 @@
       </c>
       <c r="I58" s="197"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="311"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="361"/>
       <c r="B59" s="174"/>
-      <c r="C59" s="328"/>
+      <c r="C59" s="386"/>
       <c r="D59" s="66" t="s">
         <v>18</v>
       </c>
@@ -5211,8 +5240,8 @@
       </c>
       <c r="I59" s="198"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="311"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="361"/>
       <c r="B60" s="211"/>
       <c r="C60" s="212" t="s">
         <v>41</v>
@@ -5234,8 +5263,8 @@
       </c>
       <c r="I60" s="216"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="312"/>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="362"/>
       <c r="B61" s="109"/>
       <c r="C61" s="70" t="s">
         <v>217</v>
@@ -5252,15 +5281,17 @@
       <c r="G61" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="H61" s="71"/>
+      <c r="H61" s="71" t="s">
+        <v>554</v>
+      </c>
       <c r="I61" s="72"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="295" t="s">
+    <row r="62" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="315" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="110"/>
-      <c r="C62" s="329" t="s">
+      <c r="C62" s="387" t="s">
         <v>44</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -5275,13 +5306,15 @@
       <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="I62" s="200"/>
     </row>
-    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="295"/>
+    <row r="63" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="315"/>
       <c r="B63" s="110"/>
-      <c r="C63" s="329"/>
+      <c r="C63" s="387"/>
       <c r="D63" s="5" t="s">
         <v>18</v>
       </c>
@@ -5299,10 +5332,10 @@
       </c>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="295"/>
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="315"/>
       <c r="B64" s="110"/>
-      <c r="C64" s="329"/>
+      <c r="C64" s="387"/>
       <c r="D64" s="12" t="s">
         <v>18</v>
       </c>
@@ -5320,8 +5353,8 @@
       </c>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="296"/>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="316"/>
       <c r="B65" s="175"/>
       <c r="C65" s="36" t="s">
         <v>48</v>
@@ -5343,8 +5376,8 @@
       </c>
       <c r="I65" s="42"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="366" t="s">
+    <row r="66" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="336" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="111" t="s">
@@ -5372,8 +5405,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="367"/>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="337"/>
       <c r="B67" s="112" t="s">
         <v>53</v>
       </c>
@@ -5399,7 +5432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="29" t="s">
         <v>55</v>
       </c>
@@ -5426,14 +5459,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="321" t="s">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="371" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="316" t="s">
+      <c r="B69" s="366" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="356" t="s">
+      <c r="C69" s="322" t="s">
         <v>57</v>
       </c>
       <c r="D69" s="57" t="s">
@@ -5453,10 +5486,10 @@
       </c>
       <c r="I69" s="57"/>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="322"/>
-      <c r="B70" s="317"/>
-      <c r="C70" s="357"/>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="372"/>
+      <c r="B70" s="367"/>
+      <c r="C70" s="323"/>
       <c r="D70" s="46" t="s">
         <v>18</v>
       </c>
@@ -5474,10 +5507,10 @@
       </c>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="322"/>
-      <c r="B71" s="317"/>
-      <c r="C71" s="358"/>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="372"/>
+      <c r="B71" s="367"/>
+      <c r="C71" s="324"/>
       <c r="D71" s="59" t="s">
         <v>18</v>
       </c>
@@ -5490,12 +5523,14 @@
       <c r="G71" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="59"/>
+      <c r="H71" s="59" t="s">
+        <v>554</v>
+      </c>
       <c r="I71" s="59"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="322"/>
-      <c r="B72" s="318"/>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="372"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="239" t="s">
         <v>227</v>
       </c>
@@ -5511,12 +5546,14 @@
       <c r="G72" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="236"/>
+      <c r="H72" s="236" t="s">
+        <v>553</v>
+      </c>
       <c r="I72" s="236"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="322"/>
-      <c r="B73" s="319"/>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="372"/>
+      <c r="B73" s="369"/>
       <c r="C73" s="239" t="s">
         <v>228</v>
       </c>
@@ -5532,15 +5569,17 @@
       <c r="G73" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="H73" s="236"/>
+      <c r="H73" s="236" t="s">
+        <v>553</v>
+      </c>
       <c r="I73" s="236"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="322"/>
-      <c r="B74" s="316" t="s">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="372"/>
+      <c r="B74" s="366" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="356" t="s">
+      <c r="C74" s="322" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="57" t="s">
@@ -5560,10 +5599,10 @@
       </c>
       <c r="I74" s="57"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="322"/>
-      <c r="B75" s="317"/>
-      <c r="C75" s="358"/>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="372"/>
+      <c r="B75" s="367"/>
+      <c r="C75" s="324"/>
       <c r="D75" s="59" t="s">
         <v>18</v>
       </c>
@@ -5581,9 +5620,9 @@
       </c>
       <c r="I75" s="59"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="322"/>
-      <c r="B76" s="317"/>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="372"/>
+      <c r="B76" s="367"/>
       <c r="C76" s="172" t="s">
         <v>231</v>
       </c>
@@ -5599,12 +5638,14 @@
       <c r="G76" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="H76" s="62"/>
+      <c r="H76" s="62" t="s">
+        <v>554</v>
+      </c>
       <c r="I76" s="62"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="322"/>
-      <c r="B77" s="320"/>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="372"/>
+      <c r="B77" s="370"/>
       <c r="C77" s="172" t="s">
         <v>232</v>
       </c>
@@ -5620,11 +5661,13 @@
       <c r="G77" s="241" t="s">
         <v>220</v>
       </c>
-      <c r="H77" s="241"/>
+      <c r="H77" s="241" t="s">
+        <v>554</v>
+      </c>
       <c r="I77" s="241"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="322"/>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="372"/>
       <c r="B78" s="245" t="s">
         <v>150</v>
       </c>
@@ -5648,8 +5691,8 @@
       </c>
       <c r="I78" s="62"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="322"/>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="372"/>
       <c r="B79" s="246" t="s">
         <v>170</v>
       </c>
@@ -5673,8 +5716,8 @@
       </c>
       <c r="I79" s="177"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="322"/>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="372"/>
       <c r="B80" s="247" t="s">
         <v>233</v>
       </c>
@@ -5693,11 +5736,13 @@
       <c r="G80" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="H80" s="62"/>
+      <c r="H80" s="62" t="s">
+        <v>553</v>
+      </c>
       <c r="I80" s="62"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="323"/>
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="373"/>
       <c r="B81" s="244" t="s">
         <v>237</v>
       </c>
@@ -5716,11 +5761,13 @@
       <c r="G81" s="241" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="241"/>
+      <c r="H81" s="241" t="s">
+        <v>554</v>
+      </c>
       <c r="I81" s="241"/>
     </row>
-    <row r="82" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="294" t="s">
+    <row r="82" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="314" t="s">
         <v>153</v>
       </c>
       <c r="B82" s="238" t="s">
@@ -5746,9 +5793,9 @@
       </c>
       <c r="I82" s="234"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="295"/>
-      <c r="B83" s="359" t="s">
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="315"/>
+      <c r="B83" s="325" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="42" t="s">
@@ -5771,9 +5818,9 @@
       </c>
       <c r="I83" s="42"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="295"/>
-      <c r="B84" s="360"/>
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="315"/>
+      <c r="B84" s="326"/>
       <c r="C84" s="42" t="s">
         <v>67</v>
       </c>
@@ -5794,9 +5841,9 @@
       </c>
       <c r="I84" s="42"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="295"/>
-      <c r="B85" s="360"/>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="315"/>
+      <c r="B85" s="326"/>
       <c r="C85" s="42" t="s">
         <v>71</v>
       </c>
@@ -5819,9 +5866,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="295"/>
-      <c r="B86" s="361"/>
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="315"/>
+      <c r="B86" s="327"/>
       <c r="C86" s="42" t="s">
         <v>72</v>
       </c>
@@ -5844,8 +5891,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="296"/>
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="316"/>
       <c r="B87" s="224" t="s">
         <v>196</v>
       </c>
@@ -5869,14 +5916,14 @@
       </c>
       <c r="I87" s="22"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="339" t="s">
+    <row r="88" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="348" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="337" t="s">
+      <c r="B88" s="346" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="335" t="s">
+      <c r="C88" s="344" t="s">
         <v>74</v>
       </c>
       <c r="D88" s="78" t="s">
@@ -5898,10 +5945,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="340"/>
-      <c r="B89" s="338"/>
-      <c r="C89" s="336"/>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="349"/>
+      <c r="B89" s="347"/>
+      <c r="C89" s="345"/>
       <c r="D89" s="80" t="s">
         <v>18</v>
       </c>
@@ -5919,8 +5966,8 @@
       </c>
       <c r="I89" s="82"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="340"/>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="349"/>
       <c r="B90" s="222" t="s">
         <v>155</v>
       </c>
@@ -5944,8 +5991,8 @@
       </c>
       <c r="I90" s="83"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="340"/>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="349"/>
       <c r="B91" s="223" t="s">
         <v>156</v>
       </c>
@@ -5969,8 +6016,8 @@
       </c>
       <c r="I91" s="83"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="340"/>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="349"/>
       <c r="B92" s="223" t="s">
         <v>157</v>
       </c>
@@ -5994,8 +6041,8 @@
       </c>
       <c r="I92" s="83"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="341"/>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="350"/>
       <c r="B93" s="223" t="s">
         <v>158</v>
       </c>
@@ -6021,8 +6068,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="294" t="s">
+    <row r="94" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="314" t="s">
         <v>160</v>
       </c>
       <c r="B94" s="220" t="s">
@@ -6048,8 +6095,8 @@
       </c>
       <c r="I94" s="42"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="296"/>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="316"/>
       <c r="B95" s="221" t="s">
         <v>162</v>
       </c>
@@ -6068,18 +6115,18 @@
       <c r="G95" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H95" s="388" t="s">
+      <c r="H95" s="291" t="s">
         <v>553</v>
       </c>
       <c r="I95" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="344" t="s">
+    <row r="96" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="353" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="342" t="s">
+      <c r="B96" s="351" t="s">
         <v>163</v>
       </c>
       <c r="C96" s="49" t="s">
@@ -6102,9 +6149,9 @@
       </c>
       <c r="I96" s="48"/>
     </row>
-    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="345"/>
-      <c r="B97" s="343"/>
+    <row r="97" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="354"/>
+      <c r="B97" s="352"/>
       <c r="C97" s="51" t="s">
         <v>89</v>
       </c>
@@ -6127,8 +6174,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="346"/>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="355"/>
       <c r="B98" s="114" t="s">
         <v>164</v>
       </c>
@@ -6152,12 +6199,12 @@
       </c>
       <c r="I98" s="53"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="294" t="s">
+    <row r="99" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="314" t="s">
         <v>166</v>
       </c>
       <c r="B99" s="179"/>
-      <c r="C99" s="380" t="s">
+      <c r="C99" s="305" t="s">
         <v>91</v>
       </c>
       <c r="D99" s="39" t="s">
@@ -6172,13 +6219,15 @@
       <c r="G99" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39" t="s">
+        <v>553</v>
+      </c>
       <c r="I99" s="38"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="295"/>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="315"/>
       <c r="B100" s="180"/>
-      <c r="C100" s="381"/>
+      <c r="C100" s="306"/>
       <c r="D100" s="41" t="s">
         <v>18</v>
       </c>
@@ -6198,8 +6247,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="296"/>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="316"/>
       <c r="B101" s="115"/>
       <c r="C101" s="20" t="s">
         <v>92</v>
@@ -6216,13 +6265,15 @@
       <c r="G101" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H101" s="18"/>
+      <c r="H101" s="18" t="s">
+        <v>553</v>
+      </c>
       <c r="I101" s="202" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="351" t="s">
+    <row r="102" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="317" t="s">
         <v>167</v>
       </c>
       <c r="B102" s="219" t="s">
@@ -6248,8 +6299,8 @@
       </c>
       <c r="I102" s="201"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="352"/>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="318"/>
       <c r="B103" s="219" t="s">
         <v>169</v>
       </c>
@@ -6273,8 +6324,8 @@
       </c>
       <c r="I103" s="91"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="353"/>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="319"/>
       <c r="B104" s="219" t="s">
         <v>168</v>
       </c>
@@ -6298,8 +6349,8 @@
       </c>
       <c r="I104" s="89"/>
     </row>
-    <row r="105" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="313" t="s">
+    <row r="105" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="363" t="s">
         <v>173</v>
       </c>
       <c r="B105" s="218" t="s">
@@ -6325,8 +6376,8 @@
       </c>
       <c r="I105" s="42"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="314"/>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="364"/>
       <c r="B106" s="182" t="s">
         <v>172</v>
       </c>
@@ -6352,8 +6403,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="315"/>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="365"/>
       <c r="B107" s="229" t="s">
         <v>222</v>
       </c>
@@ -6372,11 +6423,13 @@
       <c r="G107" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H107" s="18"/>
+      <c r="H107" s="18" t="s">
+        <v>553</v>
+      </c>
       <c r="I107" s="202"/>
     </row>
-    <row r="108" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="354" t="s">
+    <row r="108" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="320" t="s">
         <v>174</v>
       </c>
       <c r="B108" s="225" t="s">
@@ -6402,8 +6455,8 @@
       </c>
       <c r="I108" s="228"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="355"/>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="321"/>
       <c r="B109" s="116" t="s">
         <v>176</v>
       </c>
@@ -6427,8 +6480,8 @@
       </c>
       <c r="I109" s="94"/>
     </row>
-    <row r="110" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="294" t="s">
+    <row r="110" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="314" t="s">
         <v>177</v>
       </c>
       <c r="B110" s="117" t="s">
@@ -6454,8 +6507,8 @@
       </c>
       <c r="I110" s="43"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="295"/>
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="315"/>
       <c r="B111" s="183" t="s">
         <v>112</v>
       </c>
@@ -6481,8 +6534,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="296"/>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="316"/>
       <c r="B112" s="233" t="s">
         <v>121</v>
       </c>
@@ -6508,8 +6561,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="313" t="s">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="363" t="s">
         <v>224</v>
       </c>
       <c r="B113" s="181" t="s">
@@ -6535,8 +6588,8 @@
       </c>
       <c r="I113" s="42"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="296"/>
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="316"/>
       <c r="B114" s="113" t="s">
         <v>225</v>
       </c>
@@ -6555,11 +6608,13 @@
       <c r="G114" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="18"/>
+      <c r="H114" s="18" t="s">
+        <v>553</v>
+      </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="294" t="s">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="314" t="s">
         <v>252</v>
       </c>
       <c r="B115" s="176" t="s">
@@ -6585,8 +6640,8 @@
       </c>
       <c r="I115" s="250"/>
     </row>
-    <row r="116" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="296"/>
+    <row r="116" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="316"/>
       <c r="B116" s="113" t="s">
         <v>253</v>
       </c>
@@ -6605,10 +6660,12 @@
       <c r="G116" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="H116" s="18"/>
+      <c r="H116" s="18" t="s">
+        <v>553</v>
+      </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="29" t="s">
         <v>180</v>
       </c>
@@ -6635,8 +6692,8 @@
       </c>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="294" t="s">
+    <row r="118" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="314" t="s">
         <v>181</v>
       </c>
       <c r="B118" s="176" t="s">
@@ -6657,11 +6714,13 @@
       <c r="G118" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="H118" s="249"/>
+      <c r="H118" s="249" t="s">
+        <v>553</v>
+      </c>
       <c r="I118" s="250"/>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="296"/>
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="316"/>
       <c r="B119" s="113" t="s">
         <v>187</v>
       </c>
@@ -6685,7 +6744,7 @@
       </c>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="29" t="s">
         <v>182</v>
       </c>
@@ -6712,7 +6771,7 @@
       </c>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="29" t="s">
         <v>126</v>
       </c>
@@ -6739,7 +6798,7 @@
       </c>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="29" t="s">
         <v>185</v>
       </c>
@@ -6768,7 +6827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="29" t="s">
         <v>188</v>
       </c>
@@ -6797,7 +6856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="29" t="s">
         <v>190</v>
       </c>
@@ -6826,7 +6885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="30" t="s">
         <v>191</v>
       </c>
@@ -6855,7 +6914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="29" t="s">
         <v>178</v>
       </c>
@@ -6882,7 +6941,7 @@
       </c>
       <c r="I126" s="43"/>
     </row>
-    <row r="127" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="289"/>
       <c r="B127" s="290" t="s">
         <v>550</v>
@@ -6902,12 +6961,14 @@
       <c r="G127" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H127" s="387"/>
+      <c r="H127" s="286" t="s">
+        <v>554</v>
+      </c>
       <c r="I127" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="289"/>
       <c r="B128" s="290" t="s">
         <v>550</v>
@@ -6927,12 +6988,14 @@
       <c r="G128" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H128" s="387"/>
+      <c r="H128" s="286" t="s">
+        <v>554</v>
+      </c>
       <c r="I128" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="289"/>
       <c r="B129" s="290" t="s">
         <v>550</v>
@@ -6952,12 +7015,14 @@
       <c r="G129" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H129" s="387"/>
+      <c r="H129" s="286" t="s">
+        <v>554</v>
+      </c>
       <c r="I129" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="289"/>
       <c r="B130" s="290" t="s">
         <v>550</v>
@@ -6977,12 +7042,14 @@
       <c r="G130" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H130" s="387"/>
+      <c r="H130" s="286" t="s">
+        <v>554</v>
+      </c>
       <c r="I130" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="289"/>
       <c r="B131" s="290" t="s">
         <v>550</v>
@@ -7002,12 +7069,14 @@
       <c r="G131" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H131" s="387"/>
+      <c r="H131" s="286" t="s">
+        <v>554</v>
+      </c>
       <c r="I131" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="289"/>
       <c r="B132" s="290" t="s">
         <v>550</v>
@@ -7027,17 +7096,19 @@
       <c r="G132" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="H132" s="387"/>
+      <c r="H132" s="286" t="s">
+        <v>554</v>
+      </c>
       <c r="I132" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="373" t="s">
+    <row r="133" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="296" t="s">
         <v>192</v>
       </c>
       <c r="B133" s="184"/>
-      <c r="C133" s="332" t="s">
+      <c r="C133" s="341" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="95" t="s">
@@ -7059,10 +7130,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="374"/>
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="297"/>
       <c r="B134" s="184"/>
-      <c r="C134" s="333"/>
+      <c r="C134" s="342"/>
       <c r="D134" s="97" t="s">
         <v>18</v>
       </c>
@@ -7082,10 +7153,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="374"/>
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="297"/>
       <c r="B135" s="184"/>
-      <c r="C135" s="333"/>
+      <c r="C135" s="342"/>
       <c r="D135" s="100" t="s">
         <v>18</v>
       </c>
@@ -7105,10 +7176,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="374"/>
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="297"/>
       <c r="B136" s="185"/>
-      <c r="C136" s="333"/>
+      <c r="C136" s="342"/>
       <c r="D136" s="100" t="s">
         <v>18</v>
       </c>
@@ -7128,10 +7199,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="374"/>
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="297"/>
       <c r="B137" s="186"/>
-      <c r="C137" s="334"/>
+      <c r="C137" s="343"/>
       <c r="D137" s="101" t="s">
         <v>18</v>
       </c>
@@ -7151,10 +7222,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="374"/>
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="297"/>
       <c r="B138" s="186"/>
-      <c r="C138" s="371" t="s">
+      <c r="C138" s="294" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="103" t="s">
@@ -7176,10 +7247,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="374"/>
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="297"/>
       <c r="B139" s="186"/>
-      <c r="C139" s="372"/>
+      <c r="C139" s="295"/>
       <c r="D139" s="105" t="s">
         <v>18</v>
       </c>
@@ -7199,8 +7270,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="375"/>
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="298"/>
       <c r="B140" s="187"/>
       <c r="C140" s="217" t="s">
         <v>141</v>
@@ -7224,8 +7295,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="304" t="s">
+    <row r="141" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="356" t="s">
         <v>200</v>
       </c>
       <c r="B141" s="150"/>
@@ -7244,11 +7315,13 @@
       <c r="G141" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H141" s="19"/>
+      <c r="H141" s="19" t="s">
+        <v>553</v>
+      </c>
       <c r="I141" s="19"/>
     </row>
-    <row r="142" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="305"/>
+    <row r="142" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="357"/>
       <c r="B142" s="151"/>
       <c r="C142" s="2" t="s">
         <v>202</v>
@@ -7265,11 +7338,13 @@
       <c r="G142" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H142" s="2"/>
+      <c r="H142" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="306"/>
+    <row r="143" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="358"/>
       <c r="B143" s="153"/>
       <c r="C143" s="25" t="s">
         <v>263</v>
@@ -7286,11 +7361,13 @@
       <c r="G143" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="H143" s="25"/>
+      <c r="H143" s="25" t="s">
+        <v>553</v>
+      </c>
       <c r="I143" s="25"/>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="304" t="s">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="356" t="s">
         <v>208</v>
       </c>
       <c r="B144" s="150"/>
@@ -7309,11 +7386,13 @@
       <c r="G144" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H144" s="19"/>
+      <c r="H144" s="25" t="s">
+        <v>553</v>
+      </c>
       <c r="I144" s="19"/>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="305"/>
+    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="357"/>
       <c r="B145" s="151"/>
       <c r="C145" s="155" t="s">
         <v>206</v>
@@ -7330,11 +7409,13 @@
       <c r="G145" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H145" s="2"/>
+      <c r="H145" s="25" t="s">
+        <v>553</v>
+      </c>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="306"/>
+    <row r="146" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="358"/>
       <c r="B146" s="152"/>
       <c r="C146" s="149" t="s">
         <v>207</v>
@@ -7351,10 +7432,12 @@
       <c r="G146" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="H146" s="149"/>
+      <c r="H146" s="25" t="s">
+        <v>553</v>
+      </c>
       <c r="I146" s="149"/>
     </row>
-    <row r="147" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="160" t="s">
         <v>209</v>
       </c>
@@ -7374,10 +7457,12 @@
       <c r="G147" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="H147" s="149"/>
+      <c r="H147" s="25" t="s">
+        <v>553</v>
+      </c>
       <c r="I147" s="149"/>
     </row>
-    <row r="148" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="161" t="s">
         <v>211</v>
       </c>
@@ -7397,10 +7482,12 @@
       <c r="G148" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="H148" s="20"/>
+      <c r="H148" s="25" t="s">
+        <v>553</v>
+      </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="160" t="s">
         <v>238</v>
       </c>
@@ -7420,11 +7507,13 @@
       <c r="G149" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H149" s="6"/>
+      <c r="H149" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="330" t="s">
+    <row r="150" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="339" t="s">
         <v>242</v>
       </c>
       <c r="B150" s="251" t="s">
@@ -7445,11 +7534,13 @@
       <c r="G150" s="248" t="s">
         <v>256</v>
       </c>
-      <c r="H150" s="248"/>
+      <c r="H150" s="248" t="s">
+        <v>553</v>
+      </c>
       <c r="I150" s="248"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="331"/>
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="340"/>
       <c r="B151" s="252" t="s">
         <v>268</v>
       </c>
@@ -7468,10 +7559,12 @@
       <c r="G151" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H151" s="20"/>
+      <c r="H151" s="20" t="s">
+        <v>554</v>
+      </c>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="159" t="s">
         <v>243</v>
       </c>
@@ -7496,7 +7589,7 @@
       </c>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="159" t="s">
         <v>244</v>
       </c>
@@ -7521,7 +7614,7 @@
       </c>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="159" t="s">
         <v>245</v>
       </c>
@@ -7546,7 +7639,7 @@
       </c>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="159" t="s">
         <v>246</v>
       </c>
@@ -7571,7 +7664,7 @@
       </c>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="159" t="s">
         <v>247</v>
       </c>
@@ -7596,7 +7689,7 @@
       </c>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="159" t="s">
         <v>248</v>
       </c>
@@ -7621,7 +7714,7 @@
       </c>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="159" t="s">
         <v>249</v>
       </c>
@@ -7646,7 +7739,7 @@
       </c>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -7655,7 +7748,7 @@
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -7664,7 +7757,7 @@
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -7673,7 +7766,7 @@
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -7682,7 +7775,7 @@
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -7691,7 +7784,7 @@
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -7700,7 +7793,7 @@
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
@@ -7709,7 +7802,7 @@
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
     </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -7718,7 +7811,7 @@
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
     </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -7727,7 +7820,7 @@
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
     </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -7736,7 +7829,7 @@
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -7745,7 +7838,7 @@
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -7754,7 +7847,7 @@
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -7763,7 +7856,7 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
     </row>
-    <row r="172" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -7772,7 +7865,7 @@
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -7781,7 +7874,7 @@
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -7790,7 +7883,7 @@
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -7799,7 +7892,7 @@
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
     </row>
-    <row r="176" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -7808,7 +7901,7 @@
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
     </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -7817,7 +7910,7 @@
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
     </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -7826,7 +7919,7 @@
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
     </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -7835,7 +7928,7 @@
       <c r="H179" s="15"/>
       <c r="I179" s="15"/>
     </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -7844,7 +7937,7 @@
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
     </row>
-    <row r="181" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -7853,7 +7946,7 @@
       <c r="H181" s="15"/>
       <c r="I181" s="15"/>
     </row>
-    <row r="182" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -7862,7 +7955,7 @@
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
     </row>
-    <row r="183" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -7871,7 +7964,7 @@
       <c r="H183" s="15"/>
       <c r="I183" s="15"/>
     </row>
-    <row r="184" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -7880,7 +7973,7 @@
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
     </row>
-    <row r="185" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -7889,7 +7982,7 @@
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
     </row>
-    <row r="186" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -7898,7 +7991,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
     </row>
-    <row r="187" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -7907,7 +8000,7 @@
       <c r="H187" s="15"/>
       <c r="I187" s="15"/>
     </row>
-    <row r="188" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -7916,7 +8009,7 @@
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
     </row>
-    <row r="189" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -7925,7 +8018,7 @@
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
     </row>
-    <row r="190" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -7934,7 +8027,7 @@
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
     </row>
-    <row r="191" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -7943,7 +8036,7 @@
       <c r="H191" s="15"/>
       <c r="I191" s="15"/>
     </row>
-    <row r="192" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -7952,7 +8045,7 @@
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -7961,7 +8054,7 @@
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
     </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -7970,7 +8063,7 @@
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -7979,7 +8072,7 @@
       <c r="H195" s="15"/>
       <c r="I195" s="15"/>
     </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -7988,7 +8081,7 @@
       <c r="H196" s="15"/>
       <c r="I196" s="15"/>
     </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -7997,7 +8090,7 @@
       <c r="H197" s="15"/>
       <c r="I197" s="15"/>
     </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -8006,7 +8099,7 @@
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
     </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -8015,7 +8108,7 @@
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
     </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -8024,7 +8117,7 @@
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
     </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -8033,7 +8126,7 @@
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
     </row>
-    <row r="202" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -8042,7 +8135,7 @@
       <c r="H202" s="15"/>
       <c r="I202" s="15"/>
     </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -8051,7 +8144,7 @@
       <c r="H203" s="15"/>
       <c r="I203" s="15"/>
     </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -8060,7 +8153,7 @@
       <c r="H204" s="15"/>
       <c r="I204" s="15"/>
     </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -8069,7 +8162,7 @@
       <c r="H205" s="15"/>
       <c r="I205" s="15"/>
     </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -8078,7 +8171,7 @@
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
     </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -8087,7 +8180,7 @@
       <c r="H207" s="15"/>
       <c r="I207" s="15"/>
     </row>
-    <row r="208" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -8096,7 +8189,7 @@
       <c r="H208" s="15"/>
       <c r="I208" s="15"/>
     </row>
-    <row r="209" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -8105,7 +8198,7 @@
       <c r="H209" s="15"/>
       <c r="I209" s="15"/>
     </row>
-    <row r="210" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -8114,7 +8207,7 @@
       <c r="H210" s="15"/>
       <c r="I210" s="15"/>
     </row>
-    <row r="211" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -8123,7 +8216,7 @@
       <c r="H211" s="15"/>
       <c r="I211" s="15"/>
     </row>
-    <row r="212" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -8132,7 +8225,7 @@
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>
     </row>
-    <row r="213" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -8141,7 +8234,7 @@
       <c r="H213" s="15"/>
       <c r="I213" s="15"/>
     </row>
-    <row r="214" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C214" s="15"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -8150,7 +8243,7 @@
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
     </row>
-    <row r="215" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -8159,7 +8252,7 @@
       <c r="H215" s="15"/>
       <c r="I215" s="15"/>
     </row>
-    <row r="216" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
@@ -8168,7 +8261,7 @@
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
     </row>
-    <row r="217" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -8177,7 +8270,7 @@
       <c r="H217" s="15"/>
       <c r="I217" s="15"/>
     </row>
-    <row r="218" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -8186,7 +8279,7 @@
       <c r="H218" s="15"/>
       <c r="I218" s="15"/>
     </row>
-    <row r="219" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
@@ -8195,7 +8288,7 @@
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
     </row>
-    <row r="220" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -8204,7 +8297,7 @@
       <c r="H220" s="15"/>
       <c r="I220" s="15"/>
     </row>
-    <row r="221" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -8213,7 +8306,7 @@
       <c r="H221" s="15"/>
       <c r="I221" s="15"/>
     </row>
-    <row r="222" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -8222,7 +8315,7 @@
       <c r="H222" s="15"/>
       <c r="I222" s="15"/>
     </row>
-    <row r="223" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -8231,7 +8324,7 @@
       <c r="H223" s="15"/>
       <c r="I223" s="15"/>
     </row>
-    <row r="224" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
@@ -8240,7 +8333,7 @@
       <c r="H224" s="15"/>
       <c r="I224" s="15"/>
     </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
@@ -8249,7 +8342,7 @@
       <c r="H225" s="15"/>
       <c r="I225" s="15"/>
     </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
@@ -8258,7 +8351,7 @@
       <c r="H226" s="15"/>
       <c r="I226" s="15"/>
     </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
@@ -8267,7 +8360,7 @@
       <c r="H227" s="15"/>
       <c r="I227" s="15"/>
     </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
@@ -8276,7 +8369,7 @@
       <c r="H228" s="15"/>
       <c r="I228" s="15"/>
     </row>
-    <row r="229" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
@@ -8285,7 +8378,7 @@
       <c r="H229" s="15"/>
       <c r="I229" s="15"/>
     </row>
-    <row r="230" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
@@ -8294,7 +8387,7 @@
       <c r="H230" s="15"/>
       <c r="I230" s="15"/>
     </row>
-    <row r="231" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
@@ -8303,7 +8396,7 @@
       <c r="H231" s="15"/>
       <c r="I231" s="15"/>
     </row>
-    <row r="232" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C232" s="15"/>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
@@ -8312,7 +8405,7 @@
       <c r="H232" s="15"/>
       <c r="I232" s="15"/>
     </row>
-    <row r="233" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C233" s="15"/>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
@@ -8321,7 +8414,7 @@
       <c r="H233" s="15"/>
       <c r="I233" s="15"/>
     </row>
-    <row r="234" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C234" s="15"/>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
@@ -8330,7 +8423,7 @@
       <c r="H234" s="15"/>
       <c r="I234" s="15"/>
     </row>
-    <row r="235" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
@@ -8339,7 +8432,7 @@
       <c r="H235" s="15"/>
       <c r="I235" s="15"/>
     </row>
-    <row r="236" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
@@ -8348,7 +8441,7 @@
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
     </row>
-    <row r="237" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C237" s="15"/>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
@@ -8357,7 +8450,7 @@
       <c r="H237" s="15"/>
       <c r="I237" s="15"/>
     </row>
-    <row r="238" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
@@ -8366,7 +8459,7 @@
       <c r="H238" s="15"/>
       <c r="I238" s="15"/>
     </row>
-    <row r="239" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
@@ -8375,7 +8468,7 @@
       <c r="H239" s="15"/>
       <c r="I239" s="15"/>
     </row>
-    <row r="240" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
@@ -8384,7 +8477,7 @@
       <c r="H240" s="15"/>
       <c r="I240" s="15"/>
     </row>
-    <row r="241" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
@@ -8393,7 +8486,7 @@
       <c r="H241" s="15"/>
       <c r="I241" s="15"/>
     </row>
-    <row r="242" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
@@ -8402,7 +8495,7 @@
       <c r="H242" s="15"/>
       <c r="I242" s="15"/>
     </row>
-    <row r="243" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
@@ -8411,7 +8504,7 @@
       <c r="H243" s="15"/>
       <c r="I243" s="15"/>
     </row>
-    <row r="244" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C244" s="15"/>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
@@ -8420,7 +8513,7 @@
       <c r="H244" s="15"/>
       <c r="I244" s="15"/>
     </row>
-    <row r="245" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C245" s="15"/>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
@@ -8429,7 +8522,7 @@
       <c r="H245" s="15"/>
       <c r="I245" s="15"/>
     </row>
-    <row r="246" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
@@ -8438,7 +8531,7 @@
       <c r="H246" s="15"/>
       <c r="I246" s="15"/>
     </row>
-    <row r="247" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C247" s="15"/>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
@@ -8447,7 +8540,7 @@
       <c r="H247" s="15"/>
       <c r="I247" s="15"/>
     </row>
-    <row r="248" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C248" s="15"/>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
@@ -8456,7 +8549,7 @@
       <c r="H248" s="15"/>
       <c r="I248" s="15"/>
     </row>
-    <row r="249" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C249" s="15"/>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
@@ -8465,7 +8558,7 @@
       <c r="H249" s="15"/>
       <c r="I249" s="15"/>
     </row>
-    <row r="250" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C250" s="15"/>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
@@ -8474,7 +8567,7 @@
       <c r="H250" s="15"/>
       <c r="I250" s="15"/>
     </row>
-    <row r="251" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
@@ -8483,7 +8576,7 @@
       <c r="H251" s="15"/>
       <c r="I251" s="15"/>
     </row>
-    <row r="252" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C252" s="15"/>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
@@ -8492,7 +8585,7 @@
       <c r="H252" s="15"/>
       <c r="I252" s="15"/>
     </row>
-    <row r="253" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C253" s="15"/>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
@@ -8501,7 +8594,7 @@
       <c r="H253" s="15"/>
       <c r="I253" s="15"/>
     </row>
-    <row r="254" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C254" s="15"/>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
@@ -8510,7 +8603,7 @@
       <c r="H254" s="15"/>
       <c r="I254" s="15"/>
     </row>
-    <row r="255" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
@@ -8519,7 +8612,7 @@
       <c r="H255" s="15"/>
       <c r="I255" s="15"/>
     </row>
-    <row r="256" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
@@ -8528,7 +8621,7 @@
       <c r="H256" s="15"/>
       <c r="I256" s="15"/>
     </row>
-    <row r="257" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
@@ -8537,7 +8630,7 @@
       <c r="H257" s="15"/>
       <c r="I257" s="15"/>
     </row>
-    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
@@ -8546,7 +8639,7 @@
       <c r="H258" s="15"/>
       <c r="I258" s="15"/>
     </row>
-    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
@@ -8555,7 +8648,7 @@
       <c r="H259" s="15"/>
       <c r="I259" s="15"/>
     </row>
-    <row r="260" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
@@ -8564,7 +8657,7 @@
       <c r="H260" s="15"/>
       <c r="I260" s="15"/>
     </row>
-    <row r="261" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
@@ -8573,7 +8666,7 @@
       <c r="H261" s="15"/>
       <c r="I261" s="15"/>
     </row>
-    <row r="262" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
@@ -8582,7 +8675,7 @@
       <c r="H262" s="15"/>
       <c r="I262" s="15"/>
     </row>
-    <row r="263" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C263" s="15"/>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
@@ -8591,7 +8684,7 @@
       <c r="H263" s="15"/>
       <c r="I263" s="15"/>
     </row>
-    <row r="264" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C264" s="15"/>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
@@ -8600,7 +8693,7 @@
       <c r="H264" s="15"/>
       <c r="I264" s="15"/>
     </row>
-    <row r="265" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C265" s="15"/>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
@@ -8609,7 +8702,7 @@
       <c r="H265" s="15"/>
       <c r="I265" s="15"/>
     </row>
-    <row r="266" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
@@ -8618,7 +8711,7 @@
       <c r="H266" s="15"/>
       <c r="I266" s="15"/>
     </row>
-    <row r="267" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
@@ -8627,7 +8720,7 @@
       <c r="H267" s="15"/>
       <c r="I267" s="15"/>
     </row>
-    <row r="268" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
@@ -8636,7 +8729,7 @@
       <c r="H268" s="15"/>
       <c r="I268" s="15"/>
     </row>
-    <row r="269" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
@@ -8645,7 +8738,7 @@
       <c r="H269" s="15"/>
       <c r="I269" s="15"/>
     </row>
-    <row r="270" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
@@ -8654,7 +8747,7 @@
       <c r="H270" s="15"/>
       <c r="I270" s="15"/>
     </row>
-    <row r="271" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
@@ -8663,7 +8756,7 @@
       <c r="H271" s="15"/>
       <c r="I271" s="15"/>
     </row>
-    <row r="272" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
@@ -8672,7 +8765,7 @@
       <c r="H272" s="15"/>
       <c r="I272" s="15"/>
     </row>
-    <row r="273" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
@@ -8681,7 +8774,7 @@
       <c r="H273" s="15"/>
       <c r="I273" s="15"/>
     </row>
-    <row r="274" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C274" s="15"/>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
@@ -8692,6 +8785,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A31:A54"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A69:A81"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B31:B48"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C31:C44"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="C14:C26"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="A133:A140"/>
@@ -8708,49 +8844,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B31:B48"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A69:A81"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C31:C44"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C14:C26"/>
-    <mergeCell ref="A31:A54"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C62:C64"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8766,13 +8859,13 @@
       <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8780,7 +8873,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
@@ -8788,7 +8881,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="237" t="s">
         <v>234</v>
       </c>
@@ -8796,7 +8889,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
         <v>250</v>
       </c>
@@ -8804,7 +8897,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>88</v>
       </c>
@@ -8812,7 +8905,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
         <v>260</v>
       </c>
@@ -8820,7 +8913,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="42" t="s">
         <v>98</v>
       </c>
@@ -8828,7 +8921,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>257</v>
       </c>
@@ -8836,7 +8929,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>91</v>
       </c>
@@ -8844,7 +8937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>79</v>
       </c>
@@ -8852,7 +8945,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>125</v>
       </c>
@@ -8860,7 +8953,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>232</v>
       </c>
@@ -8868,7 +8961,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>263</v>
       </c>
@@ -8876,7 +8969,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
@@ -8884,7 +8977,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>105</v>
       </c>
@@ -8892,7 +8985,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>370</v>
       </c>
@@ -8900,7 +8993,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>94</v>
       </c>
@@ -8908,7 +9001,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -8916,7 +9009,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="248" t="s">
         <v>17</v>
       </c>
@@ -8924,7 +9017,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -8932,7 +9025,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -8940,7 +9033,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>207</v>
       </c>
@@ -8948,7 +9041,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -8956,7 +9049,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
@@ -8964,7 +9057,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="270" t="s">
         <v>104</v>
       </c>
@@ -8972,7 +9065,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>205</v>
       </c>
@@ -8980,7 +9073,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>206</v>
       </c>
@@ -8988,7 +9081,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -8996,7 +9089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="270" t="s">
         <v>144</v>
       </c>
@@ -9004,7 +9097,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="270" t="s">
         <v>144</v>
       </c>
@@ -9012,7 +9105,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="270" t="s">
         <v>212</v>
       </c>
@@ -9020,7 +9113,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>258</v>
       </c>
@@ -9028,7 +9121,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>239</v>
       </c>
@@ -9036,7 +9129,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>213</v>
       </c>
@@ -9044,7 +9137,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>77</v>
       </c>
@@ -9052,7 +9145,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>261</v>
       </c>
@@ -9060,7 +9153,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
@@ -9068,7 +9161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>113</v>
       </c>
@@ -9076,7 +9169,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -9084,7 +9177,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -9092,7 +9185,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>265</v>
       </c>
@@ -9100,7 +9193,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>227</v>
       </c>
@@ -9108,7 +9201,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -9116,7 +9209,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="270" t="s">
         <v>210</v>
       </c>
@@ -9124,7 +9217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -9132,7 +9225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>83</v>
       </c>
@@ -9140,7 +9233,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
@@ -9148,7 +9241,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>116</v>
       </c>
@@ -9156,7 +9249,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
@@ -9164,7 +9257,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>131</v>
       </c>
@@ -9172,7 +9265,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>231</v>
       </c>
@@ -9180,7 +9273,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>235</v>
       </c>
@@ -9188,7 +9281,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
@@ -9196,7 +9289,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -9204,7 +9297,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>111</v>
       </c>
@@ -9212,7 +9305,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>228</v>
       </c>
@@ -9220,7 +9313,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>264</v>
       </c>
@@ -9228,7 +9321,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>41</v>
       </c>
@@ -9236,7 +9329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>78</v>
       </c>
@@ -9244,7 +9337,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>214</v>
       </c>
@@ -9252,7 +9345,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>251</v>
       </c>
@@ -9260,7 +9353,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="270" t="s">
         <v>96</v>
       </c>
@@ -9268,7 +9361,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>132</v>
       </c>
@@ -9276,7 +9369,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -9284,7 +9377,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -9292,7 +9385,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>95</v>
       </c>
@@ -9300,7 +9393,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="270" t="s">
         <v>89</v>
       </c>
@@ -9308,7 +9401,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="270" t="s">
         <v>124</v>
       </c>
@@ -9316,7 +9409,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
@@ -9324,7 +9417,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>259</v>
       </c>
@@ -9332,7 +9425,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>202</v>
       </c>
@@ -9340,7 +9433,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>254</v>
       </c>
@@ -9348,7 +9441,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>44</v>
       </c>
@@ -9356,7 +9449,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>201</v>
       </c>
@@ -9364,7 +9457,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>48</v>
       </c>
@@ -9372,7 +9465,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>217</v>
       </c>
@@ -9380,7 +9473,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>66</v>
       </c>
@@ -9388,7 +9481,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>134</v>
       </c>
@@ -9396,7 +9489,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -9404,7 +9497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>240</v>
       </c>
@@ -9412,7 +9505,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="43" t="s">
         <v>223</v>
       </c>
@@ -9420,7 +9513,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="138" t="s">
         <v>35</v>
       </c>
@@ -9428,7 +9521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="43" t="s">
         <v>378</v>
       </c>
@@ -9436,7 +9529,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A84" s="45" t="s">
         <v>56</v>
       </c>
@@ -9444,7 +9537,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="173" t="s">
         <v>50</v>
       </c>
@@ -9452,7 +9545,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="76" t="s">
         <v>52</v>
       </c>
@@ -9460,7 +9553,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="85" t="s">
         <v>80</v>
       </c>
@@ -9468,7 +9561,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>127</v>
       </c>
@@ -9476,7 +9569,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="20" t="s">
         <v>85</v>
       </c>
@@ -9484,7 +9577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
         <v>102</v>
       </c>
@@ -9492,7 +9585,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>128</v>
       </c>
@@ -9500,7 +9593,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>129</v>
       </c>
@@ -9508,7 +9601,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="36" t="s">
         <v>110</v>
       </c>
@@ -9516,7 +9609,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="217" t="s">
         <v>141</v>
       </c>
@@ -9524,7 +9617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="49" t="s">
         <v>71</v>
       </c>
@@ -9532,7 +9625,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="42" t="s">
         <v>72</v>
       </c>
@@ -9540,7 +9633,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="20" t="s">
         <v>92</v>
       </c>
@@ -9548,7 +9641,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9566,15 +9659,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="255" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="255" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="255" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="255" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="256" t="s">
         <v>349</v>
       </c>
@@ -9588,7 +9681,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="257" t="s">
         <v>341</v>
       </c>
@@ -9598,7 +9691,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="263"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="257" t="s">
         <v>342</v>
       </c>
@@ -9608,7 +9701,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="263"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="257" t="s">
         <v>347</v>
       </c>
@@ -9618,7 +9711,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="263"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="265" t="s">
         <v>373</v>
       </c>
@@ -9630,7 +9723,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="257" t="s">
         <v>358</v>
       </c>
@@ -9644,7 +9737,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="257" t="s">
         <v>376</v>
       </c>
@@ -9658,7 +9751,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="257" t="s">
         <v>346</v>
       </c>
@@ -9668,7 +9761,7 @@
       <c r="C8" s="261"/>
       <c r="D8" s="263"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="257" t="s">
         <v>345</v>
       </c>
@@ -9678,7 +9771,7 @@
       <c r="C9" s="261"/>
       <c r="D9" s="263"/>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="266" t="s">
         <v>344</v>
       </c>
@@ -9690,7 +9783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="267" t="s">
         <v>374</v>
       </c>
@@ -9702,7 +9795,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="259" t="s">
         <v>348</v>
       </c>
@@ -9712,7 +9805,7 @@
       <c r="C12" s="261"/>
       <c r="D12" s="263"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="257" t="s">
         <v>343</v>
       </c>
@@ -9726,7 +9819,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="258" t="s">
         <v>375</v>
       </c>
@@ -9738,7 +9831,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="258" t="s">
         <v>361</v>
       </c>
@@ -9752,7 +9845,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9772,13 +9865,13 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>392</v>
       </c>
@@ -9786,7 +9879,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9794,7 +9887,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>395</v>
       </c>
@@ -9802,7 +9895,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>396</v>
       </c>
@@ -9810,7 +9903,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>397</v>
       </c>
@@ -9818,7 +9911,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>398</v>
       </c>
@@ -9826,7 +9919,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>399</v>
       </c>
@@ -9834,7 +9927,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>400</v>
       </c>
@@ -9842,7 +9935,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>401</v>
       </c>
@@ -9850,7 +9943,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>402</v>
       </c>
@@ -9858,7 +9951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>403</v>
       </c>
@@ -9866,7 +9959,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>404</v>
       </c>
@@ -9874,7 +9967,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>405</v>
       </c>
@@ -9882,7 +9975,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>406</v>
       </c>
@@ -9890,7 +9983,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>407</v>
       </c>
@@ -9898,7 +9991,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>408</v>
       </c>
@@ -9906,7 +9999,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>409</v>
       </c>
@@ -9914,7 +10007,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>410</v>
       </c>
@@ -9922,7 +10015,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>411</v>
       </c>
@@ -9930,7 +10023,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>412</v>
       </c>
@@ -9938,7 +10031,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>413</v>
       </c>
@@ -9946,7 +10039,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -9954,7 +10047,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>415</v>
       </c>
@@ -9979,13 +10072,13 @@
       <selection sqref="A1:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>392</v>
       </c>
@@ -9993,7 +10086,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -10001,7 +10094,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -10009,7 +10102,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>440</v>
       </c>
@@ -10017,7 +10110,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -10025,7 +10118,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>442</v>
       </c>
@@ -10033,7 +10126,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>443</v>
       </c>
@@ -10041,7 +10134,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -10049,7 +10142,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>445</v>
       </c>
@@ -10057,7 +10150,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>446</v>
       </c>
@@ -10065,7 +10158,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>447</v>
       </c>
@@ -10073,7 +10166,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>448</v>
       </c>
@@ -10081,7 +10174,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>449</v>
       </c>
@@ -10089,7 +10182,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -10097,7 +10190,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>451</v>
       </c>
@@ -10105,7 +10198,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>452</v>
       </c>
@@ -10113,7 +10206,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -10121,7 +10214,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>454</v>
       </c>
@@ -10129,7 +10222,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>455</v>
       </c>
@@ -10137,7 +10230,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>456</v>
       </c>
@@ -10145,7 +10238,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>457</v>
       </c>
@@ -10153,7 +10246,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>458</v>
       </c>
@@ -10161,7 +10254,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>459</v>
       </c>
@@ -10169,7 +10262,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>460</v>
       </c>
@@ -10177,7 +10270,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>461</v>
       </c>
@@ -10185,7 +10278,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>462</v>
       </c>
@@ -10193,7 +10286,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>463</v>
       </c>
@@ -10201,7 +10294,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>464</v>
       </c>
@@ -10209,7 +10302,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -10217,7 +10310,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>466</v>
       </c>
@@ -10225,7 +10318,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -10233,7 +10326,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>468</v>
       </c>
@@ -10241,7 +10334,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>469</v>
       </c>
@@ -10249,7 +10342,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>470</v>
       </c>
@@ -10257,7 +10350,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>471</v>
       </c>
@@ -10265,7 +10358,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>472</v>
       </c>
@@ -10273,7 +10366,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>473</v>
       </c>
@@ -10281,7 +10374,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -10289,7 +10382,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>475</v>
       </c>
@@ -10297,7 +10390,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>476</v>
       </c>
@@ -10305,7 +10398,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>477</v>
       </c>
@@ -10313,7 +10406,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>478</v>
       </c>
@@ -10321,7 +10414,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>479</v>
       </c>
@@ -10329,7 +10422,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>480</v>
       </c>
@@ -10337,7 +10430,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>481</v>
       </c>
@@ -10345,7 +10438,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>482</v>
       </c>
@@ -10353,7 +10446,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>483</v>
       </c>
@@ -10361,7 +10454,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>484</v>
       </c>
@@ -10369,7 +10462,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>485</v>
       </c>
@@ -10377,7 +10470,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>486</v>
       </c>
@@ -10385,7 +10478,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>487</v>
       </c>
@@ -10393,7 +10486,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>488</v>
       </c>

--- a/data/Table of compounds.xlsx
+++ b/data/Table of compounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="671" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2B03F7-E109-42B6-83E5-AC95858A8635}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246463A5-2364-4429-A370-CB10D9D5C3C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="490" windowWidth="19200" windowHeight="10310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Design" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="557">
   <si>
     <t>Samples</t>
   </si>
@@ -1756,6 +1756,9 @@
   </si>
   <si>
     <t>021222</t>
+  </si>
+  <si>
+    <t>Dose Response</t>
   </si>
 </sst>
 </file>
@@ -2974,7 +2977,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3221,6 +3223,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3230,28 +3253,73 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3273,48 +3341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3341,6 +3367,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,87 +3421,58 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3933,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3981,13 +3984,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="330" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="326"/>
+      <c r="C2" s="333"/>
       <c r="D2" s="4">
         <v>2</v>
       </c>
@@ -4007,9 +4010,9 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="289"/>
-      <c r="B3" s="324"/>
-      <c r="C3" s="327"/>
+      <c r="A3" s="295"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="334"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -4029,9 +4032,9 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="289"/>
-      <c r="B4" s="324"/>
-      <c r="C4" s="327"/>
+      <c r="A4" s="295"/>
+      <c r="B4" s="331"/>
+      <c r="C4" s="334"/>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
@@ -4051,9 +4054,9 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="289"/>
-      <c r="B5" s="324"/>
-      <c r="C5" s="327"/>
+      <c r="A5" s="295"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="334"/>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
@@ -4073,9 +4076,9 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="289"/>
-      <c r="B6" s="324"/>
-      <c r="C6" s="327"/>
+      <c r="A6" s="295"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="334"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
@@ -4095,9 +4098,9 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="289"/>
-      <c r="B7" s="324"/>
-      <c r="C7" s="327"/>
+      <c r="A7" s="295"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="334"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4117,11 +4120,11 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="289"/>
-      <c r="B8" s="324"/>
-      <c r="C8" s="327"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
+      <c r="A8" s="295"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -4139,9 +4142,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="289"/>
-      <c r="B9" s="324"/>
-      <c r="C9" s="328"/>
+      <c r="A9" s="295"/>
+      <c r="B9" s="331"/>
+      <c r="C9" s="335"/>
       <c r="D9" t="s">
         <v>13</v>
       </c>
@@ -4162,13 +4165,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="289"/>
-      <c r="B10" s="324"/>
-      <c r="C10" s="328"/>
-      <c r="D10" s="203" t="s">
+      <c r="A10" s="295"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="335"/>
+      <c r="D10" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="206"/>
+      <c r="E10" s="205"/>
       <c r="F10" s="140" t="s">
         <v>196</v>
       </c>
@@ -4181,20 +4184,20 @@
       <c r="I10" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="J10" s="204"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="289"/>
-      <c r="B11" s="325"/>
-      <c r="C11" s="329"/>
-      <c r="D11" s="202" t="s">
+      <c r="A11" s="295"/>
+      <c r="B11" s="332"/>
+      <c r="C11" s="336"/>
+      <c r="D11" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="207"/>
-      <c r="F11" s="202" t="s">
+      <c r="E11" s="206"/>
+      <c r="F11" s="201" t="s">
         <v>228</v>
       </c>
-      <c r="G11" s="202" t="s">
+      <c r="G11" s="201" t="s">
         <v>254</v>
       </c>
       <c r="H11" t="s">
@@ -4203,14 +4206,14 @@
       <c r="I11" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="J11" s="205"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="289"/>
-      <c r="B12" s="343" t="s">
+      <c r="A12" s="295"/>
+      <c r="B12" s="352" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="326"/>
+      <c r="C12" s="333"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -4230,9 +4233,9 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="289"/>
-      <c r="B13" s="344"/>
-      <c r="C13" s="340"/>
+      <c r="A13" s="295"/>
+      <c r="B13" s="353"/>
+      <c r="C13" s="349"/>
       <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
@@ -4252,20 +4255,20 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="289"/>
-      <c r="B14" s="344"/>
-      <c r="C14" s="340"/>
+      <c r="A14" s="295"/>
+      <c r="B14" s="353"/>
+      <c r="C14" s="349"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="372" t="s">
         <v>546</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -4274,15 +4277,15 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="289"/>
-      <c r="B15" s="344"/>
-      <c r="C15" s="340"/>
+      <c r="A15" s="295"/>
+      <c r="B15" s="353"/>
+      <c r="C15" s="349"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>9</v>
@@ -4296,40 +4299,40 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="289"/>
-      <c r="B16" s="344"/>
-      <c r="C16" s="340"/>
+      <c r="A16" s="295"/>
+      <c r="B16" s="353"/>
+      <c r="C16" s="349"/>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
         <v>546</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="289"/>
-      <c r="B17" s="344"/>
-      <c r="C17" s="340"/>
+      <c r="A17" s="295"/>
+      <c r="B17" s="353"/>
+      <c r="C17" s="349"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>546</v>
@@ -4340,9 +4343,9 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="289"/>
-      <c r="B18" s="344"/>
-      <c r="C18" s="341"/>
+      <c r="A18" s="295"/>
+      <c r="B18" s="353"/>
+      <c r="C18" s="350"/>
       <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
@@ -4362,9 +4365,9 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="289"/>
-      <c r="B19" s="344"/>
-      <c r="C19" s="341"/>
+      <c r="A19" s="295"/>
+      <c r="B19" s="353"/>
+      <c r="C19" s="350"/>
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -4380,12 +4383,12 @@
       <c r="I19" t="s">
         <v>543</v>
       </c>
-      <c r="J19" s="285"/>
+      <c r="J19" s="284"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="289"/>
-      <c r="B20" s="344"/>
-      <c r="C20" s="341"/>
+      <c r="A20" s="295"/>
+      <c r="B20" s="353"/>
+      <c r="C20" s="350"/>
       <c r="D20" s="24" t="s">
         <v>18</v>
       </c>
@@ -4405,9 +4408,9 @@
       <c r="J20" s="142"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="289"/>
-      <c r="B21" s="344"/>
-      <c r="C21" s="341"/>
+      <c r="A21" s="295"/>
+      <c r="B21" s="353"/>
+      <c r="C21" s="350"/>
       <c r="D21" s="141" t="s">
         <v>18</v>
       </c>
@@ -4427,9 +4430,9 @@
       <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="289"/>
-      <c r="B22" s="344"/>
-      <c r="C22" s="341"/>
+      <c r="A22" s="295"/>
+      <c r="B22" s="353"/>
+      <c r="C22" s="350"/>
       <c r="D22" s="120" t="s">
         <v>19</v>
       </c>
@@ -4451,9 +4454,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="289"/>
-      <c r="B23" s="344"/>
-      <c r="C23" s="342"/>
+      <c r="A23" s="295"/>
+      <c r="B23" s="353"/>
+      <c r="C23" s="351"/>
       <c r="D23" s="21" t="s">
         <v>18</v>
       </c>
@@ -4473,17 +4476,17 @@
       <c r="J23" s="142"/>
     </row>
     <row r="24" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="289"/>
-      <c r="B24" s="344"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="275" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="276"/>
-      <c r="F24" s="275" t="s">
+      <c r="A24" s="295"/>
+      <c r="B24" s="353"/>
+      <c r="C24" s="273"/>
+      <c r="D24" s="274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="275"/>
+      <c r="F24" s="274" t="s">
         <v>532</v>
       </c>
-      <c r="G24" s="275" t="s">
+      <c r="G24" s="274" t="s">
         <v>534</v>
       </c>
       <c r="H24" t="s">
@@ -4492,18 +4495,18 @@
       <c r="I24" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="J24" s="277" t="s">
+      <c r="J24" s="276" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="289"/>
-      <c r="B25" s="344"/>
-      <c r="C25" s="274"/>
-      <c r="D25" s="275" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="276"/>
+      <c r="A25" s="295"/>
+      <c r="B25" s="353"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="275"/>
       <c r="F25" s="21" t="s">
         <v>532</v>
       </c>
@@ -4516,18 +4519,18 @@
       <c r="I25" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="J25" s="277" t="s">
+      <c r="J25" s="276" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="289"/>
-      <c r="B26" s="344"/>
-      <c r="C26" s="274"/>
-      <c r="D26" s="275" t="s">
+      <c r="A26" s="295"/>
+      <c r="B26" s="353"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="276"/>
+      <c r="E26" s="275"/>
       <c r="F26" s="21" t="s">
         <v>532</v>
       </c>
@@ -4540,18 +4543,18 @@
       <c r="I26" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="J26" s="277" t="s">
+      <c r="J26" s="276" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="290"/>
-      <c r="B27" s="345"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="275" t="s">
+      <c r="A27" s="296"/>
+      <c r="B27" s="354"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="276"/>
+      <c r="E27" s="275"/>
       <c r="F27" s="21" t="s">
         <v>532</v>
       </c>
@@ -4564,18 +4567,18 @@
       <c r="I27" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="J27" s="277" t="s">
+      <c r="J27" s="276" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="333" t="s">
+      <c r="A28" s="342" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="291" t="s">
+      <c r="B28" s="337" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="337" t="s">
+      <c r="C28" s="346" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="122" t="s">
@@ -4601,13 +4604,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="334"/>
-      <c r="B29" s="292"/>
-      <c r="C29" s="338"/>
+      <c r="A29" s="343"/>
+      <c r="B29" s="358"/>
+      <c r="C29" s="347"/>
       <c r="D29" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="190" t="s">
+      <c r="E29" s="189" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="125" t="s">
@@ -4625,13 +4628,13 @@
       <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="334"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="338"/>
+      <c r="A30" s="343"/>
+      <c r="B30" s="358"/>
+      <c r="C30" s="347"/>
       <c r="D30" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="190" t="s">
+      <c r="E30" s="189" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="125" t="s">
@@ -4649,13 +4652,13 @@
       <c r="J30" s="128"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="334"/>
-      <c r="B31" s="292"/>
-      <c r="C31" s="338"/>
+      <c r="A31" s="343"/>
+      <c r="B31" s="358"/>
+      <c r="C31" s="347"/>
       <c r="D31" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="190" t="s">
+      <c r="E31" s="189" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="129" t="s">
@@ -4673,9 +4676,9 @@
       <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="334"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="338"/>
+      <c r="A32" s="343"/>
+      <c r="B32" s="358"/>
+      <c r="C32" s="347"/>
       <c r="D32" s="127" t="s">
         <v>18</v>
       </c>
@@ -4694,16 +4697,18 @@
       <c r="I32" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J32" s="128"/>
+      <c r="J32" s="128" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="334"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="338"/>
+      <c r="A33" s="343"/>
+      <c r="B33" s="358"/>
+      <c r="C33" s="347"/>
       <c r="D33" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="190" t="s">
+      <c r="E33" s="189" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="129" t="s">
@@ -4718,12 +4723,14 @@
       <c r="I33" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J33" s="128"/>
+      <c r="J33" s="128" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="334"/>
-      <c r="B34" s="292"/>
-      <c r="C34" s="338"/>
+      <c r="A34" s="343"/>
+      <c r="B34" s="358"/>
+      <c r="C34" s="347"/>
       <c r="D34" s="127" t="s">
         <v>18</v>
       </c>
@@ -4742,12 +4749,14 @@
       <c r="I34" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J34" s="128"/>
+      <c r="J34" s="128" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="334"/>
-      <c r="B35" s="292"/>
-      <c r="C35" s="338"/>
+      <c r="A35" s="343"/>
+      <c r="B35" s="358"/>
+      <c r="C35" s="347"/>
       <c r="D35" s="165" t="s">
         <v>18</v>
       </c>
@@ -4766,202 +4775,204 @@
       <c r="I35" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J35" s="167"/>
+      <c r="J35" s="128" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="334"/>
-      <c r="B36" s="292"/>
-      <c r="C36" s="338"/>
+      <c r="A36" s="343"/>
+      <c r="B36" s="358"/>
+      <c r="C36" s="347"/>
       <c r="D36" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="190" t="s">
+      <c r="E36" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="190" t="s">
+      <c r="F36" s="189" t="s">
         <v>532</v>
       </c>
       <c r="G36" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H36" s="281" t="s">
+      <c r="H36" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I36" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J36" s="192" t="s">
+      <c r="J36" s="191" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="334"/>
-      <c r="B37" s="292"/>
-      <c r="C37" s="338"/>
+      <c r="A37" s="343"/>
+      <c r="B37" s="358"/>
+      <c r="C37" s="347"/>
       <c r="D37" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="190" t="s">
+      <c r="E37" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="190" t="s">
+      <c r="F37" s="189" t="s">
         <v>536</v>
       </c>
       <c r="G37" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H37" s="281" t="s">
+      <c r="H37" s="280" t="s">
         <v>547</v>
       </c>
       <c r="I37" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J37" s="192" t="s">
+      <c r="J37" s="191" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="334"/>
-      <c r="B38" s="292"/>
-      <c r="C38" s="338"/>
+      <c r="A38" s="343"/>
+      <c r="B38" s="358"/>
+      <c r="C38" s="347"/>
       <c r="D38" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="190" t="s">
+      <c r="E38" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="190" t="s">
+      <c r="F38" s="189" t="s">
         <v>537</v>
       </c>
       <c r="G38" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H38" s="281" t="s">
+      <c r="H38" s="280" t="s">
         <v>548</v>
       </c>
       <c r="I38" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J38" s="192" t="s">
+      <c r="J38" s="191" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="334"/>
-      <c r="B39" s="292"/>
-      <c r="C39" s="338"/>
+      <c r="A39" s="343"/>
+      <c r="B39" s="358"/>
+      <c r="C39" s="347"/>
       <c r="D39" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="190" t="s">
+      <c r="E39" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="190" t="s">
+      <c r="F39" s="189" t="s">
         <v>555</v>
       </c>
       <c r="G39" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H39" s="281" t="s">
+      <c r="H39" s="280" t="s">
         <v>549</v>
       </c>
       <c r="I39" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J39" s="192" t="s">
+      <c r="J39" s="191" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="334"/>
-      <c r="B40" s="292"/>
-      <c r="C40" s="338"/>
+      <c r="A40" s="343"/>
+      <c r="B40" s="358"/>
+      <c r="C40" s="347"/>
       <c r="D40" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="190" t="s">
+      <c r="E40" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="190" t="s">
+      <c r="F40" s="189" t="s">
         <v>538</v>
       </c>
       <c r="G40" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H40" s="281" t="s">
+      <c r="H40" s="280" t="s">
         <v>550</v>
       </c>
       <c r="I40" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J40" s="192" t="s">
+      <c r="J40" s="191" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="334"/>
-      <c r="B41" s="292"/>
-      <c r="C41" s="339"/>
+      <c r="A41" s="343"/>
+      <c r="B41" s="358"/>
+      <c r="C41" s="348"/>
       <c r="D41" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="190" t="s">
+      <c r="E41" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="190" t="s">
+      <c r="F41" s="189" t="s">
         <v>540</v>
       </c>
       <c r="G41" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H41" s="281" t="s">
+      <c r="H41" s="280" t="s">
         <v>551</v>
       </c>
       <c r="I41" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="J41" s="192" t="s">
+      <c r="J41" s="191" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="334"/>
-      <c r="B42" s="292"/>
+      <c r="A42" s="343"/>
+      <c r="B42" s="358"/>
       <c r="C42" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="190" t="s">
+      <c r="D42" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="190" t="s">
+      <c r="F42" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="189" t="s">
+      <c r="G42" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="281" t="s">
+      <c r="H42" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I42" s="163" t="s">
         <v>543</v>
       </c>
-      <c r="J42" s="192" t="s">
+      <c r="J42" s="191" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="334"/>
-      <c r="B43" s="292"/>
-      <c r="C43" s="187" t="s">
+      <c r="A43" s="343"/>
+      <c r="B43" s="358"/>
+      <c r="C43" s="186" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="189" t="s">
+      <c r="D43" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="188" t="s">
         <v>214</v>
       </c>
       <c r="F43" s="131" t="s">
@@ -4970,98 +4981,98 @@
       <c r="G43" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="H43" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I43" s="280" t="s">
+      <c r="H43" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I43" s="279" t="s">
         <v>543</v>
       </c>
-      <c r="J43" s="193"/>
+      <c r="J43" s="192"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="334"/>
-      <c r="B44" s="292"/>
-      <c r="C44" s="187" t="s">
+      <c r="A44" s="343"/>
+      <c r="B44" s="358"/>
+      <c r="C44" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="191" t="s">
+      <c r="D44" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="190" t="s">
         <v>214</v>
       </c>
       <c r="F44" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="G44" s="188" t="s">
+      <c r="G44" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="H44" s="281" t="s">
+      <c r="H44" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I44" s="137" t="s">
         <v>543</v>
       </c>
-      <c r="J44" s="193"/>
+      <c r="J44" s="192"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="334"/>
-      <c r="B45" s="292"/>
+      <c r="A45" s="343"/>
+      <c r="B45" s="358"/>
       <c r="C45" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="D45" s="190" t="s">
+      <c r="D45" s="189" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="189" t="s">
+      <c r="F45" s="188" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="189" t="s">
+      <c r="G45" s="188" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I45" s="190" t="s">
+      <c r="H45" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I45" s="189" t="s">
         <v>543</v>
       </c>
-      <c r="J45" s="194"/>
+      <c r="J45" s="193"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="334"/>
-      <c r="B46" s="293"/>
-      <c r="C46" s="281" t="s">
+      <c r="A46" s="343"/>
+      <c r="B46" s="338"/>
+      <c r="C46" s="280" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="283" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="280" t="s">
+      <c r="D46" s="282" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="279" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="280" t="s">
+      <c r="F46" s="279" t="s">
         <v>532</v>
       </c>
-      <c r="G46" s="281" t="s">
+      <c r="G46" s="280" t="s">
         <v>533</v>
       </c>
-      <c r="H46" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I46" s="281" t="s">
+      <c r="H46" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I46" s="280" t="s">
         <v>542</v>
       </c>
-      <c r="J46" s="282"/>
+      <c r="J46" s="281"/>
     </row>
     <row r="47" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="334"/>
-      <c r="B47" s="291" t="s">
+      <c r="A47" s="343"/>
+      <c r="B47" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="336" t="s">
+      <c r="C47" s="345" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="124" t="s">
@@ -5076,7 +5087,7 @@
       <c r="G47" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="281" t="s">
+      <c r="H47" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I47" s="138" t="s">
@@ -5085,9 +5096,9 @@
       <c r="J47" s="126"/>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="334"/>
-      <c r="B48" s="293"/>
-      <c r="C48" s="336"/>
+      <c r="A48" s="343"/>
+      <c r="B48" s="338"/>
+      <c r="C48" s="345"/>
       <c r="D48" s="131" t="s">
         <v>18</v>
       </c>
@@ -5100,7 +5111,7 @@
       <c r="G48" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="281" t="s">
+      <c r="H48" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I48" s="133" t="s">
@@ -5109,33 +5120,33 @@
       <c r="J48" s="134"/>
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="334"/>
-      <c r="B49" s="278"/>
-      <c r="C49" s="279"/>
-      <c r="D49" s="280" t="s">
+      <c r="A49" s="343"/>
+      <c r="B49" s="277"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="279" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="280" t="s">
+      <c r="F49" s="279" t="s">
         <v>532</v>
       </c>
-      <c r="G49" s="281" t="s">
+      <c r="G49" s="280" t="s">
         <v>533</v>
       </c>
-      <c r="H49" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I49" s="281" t="s">
+      <c r="H49" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I49" s="280" t="s">
         <v>542</v>
       </c>
-      <c r="J49" s="282"/>
+      <c r="J49" s="281"/>
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="334"/>
-      <c r="B50" s="278"/>
-      <c r="C50" s="168" t="s">
+      <c r="A50" s="343"/>
+      <c r="B50" s="277"/>
+      <c r="C50" s="167" t="s">
         <v>142</v>
       </c>
       <c r="D50" s="135" t="s">
@@ -5150,48 +5161,48 @@
       <c r="G50" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="281" t="s">
+      <c r="H50" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I50" s="137" t="s">
         <v>543</v>
       </c>
-      <c r="J50" s="195"/>
+      <c r="J50" s="194"/>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="335"/>
-      <c r="B51" s="169" t="s">
+      <c r="A51" s="344"/>
+      <c r="B51" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="168" t="s">
+      <c r="C51" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="280" t="s">
+      <c r="D51" s="279" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="280" t="s">
+      <c r="F51" s="279" t="s">
         <v>532</v>
       </c>
-      <c r="G51" s="281" t="s">
+      <c r="G51" s="280" t="s">
         <v>533</v>
       </c>
-      <c r="H51" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I51" s="281" t="s">
+      <c r="H51" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I51" s="280" t="s">
         <v>542</v>
       </c>
-      <c r="J51" s="282"/>
+      <c r="J51" s="281"/>
     </row>
     <row r="52" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="108"/>
-      <c r="C52" s="287" t="s">
+      <c r="C52" s="286" t="s">
         <v>554</v>
       </c>
       <c r="D52" s="22" t="s">
@@ -5206,22 +5217,22 @@
       <c r="G52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="281" t="s">
+      <c r="H52" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="J52" s="198" t="s">
+      <c r="J52" s="197" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="330" t="s">
+      <c r="A53" s="339" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="173"/>
-      <c r="C53" s="320" t="s">
+      <c r="B53" s="172"/>
+      <c r="C53" s="327" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="63" t="s">
@@ -5236,18 +5247,18 @@
       <c r="G53" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="281" t="s">
+      <c r="H53" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I53" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="J53" s="196"/>
+      <c r="J53" s="195"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="331"/>
-      <c r="B54" s="173"/>
-      <c r="C54" s="321"/>
+      <c r="A54" s="340"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="328"/>
       <c r="D54" s="66" t="s">
         <v>18</v>
       </c>
@@ -5260,18 +5271,18 @@
       <c r="G54" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="281" t="s">
+      <c r="H54" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I54" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="J54" s="197"/>
+      <c r="J54" s="196"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="331"/>
-      <c r="B55" s="173"/>
-      <c r="C55" s="320" t="s">
+      <c r="A55" s="340"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="327" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="63" t="s">
@@ -5286,18 +5297,18 @@
       <c r="G55" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="281" t="s">
+      <c r="H55" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I55" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="J55" s="196"/>
+      <c r="J55" s="195"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="331"/>
-      <c r="B56" s="173"/>
-      <c r="C56" s="321"/>
+      <c r="A56" s="340"/>
+      <c r="B56" s="172"/>
+      <c r="C56" s="328"/>
       <c r="D56" s="66" t="s">
         <v>18</v>
       </c>
@@ -5310,42 +5321,42 @@
       <c r="G56" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="281" t="s">
+      <c r="H56" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I56" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="J56" s="197"/>
+      <c r="J56" s="196"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="331"/>
-      <c r="B57" s="209"/>
-      <c r="C57" s="210" t="s">
+      <c r="A57" s="340"/>
+      <c r="B57" s="208"/>
+      <c r="C57" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="210" t="s">
+      <c r="D57" s="210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="212" t="s">
+      <c r="F57" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="213" t="s">
+      <c r="G57" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I57" s="213" t="s">
+      <c r="H57" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I57" s="212" t="s">
         <v>543</v>
       </c>
-      <c r="J57" s="214"/>
+      <c r="J57" s="213"/>
     </row>
     <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="332"/>
+      <c r="A58" s="341"/>
       <c r="B58" s="109"/>
       <c r="C58" s="70" t="s">
         <v>215</v>
@@ -5362,7 +5373,7 @@
       <c r="G58" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="H58" s="281" t="s">
+      <c r="H58" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I58" s="71" t="s">
@@ -5371,11 +5382,11 @@
       <c r="J58" s="72"/>
     </row>
     <row r="59" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="298" t="s">
+      <c r="A59" s="305" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="110"/>
-      <c r="C59" s="322" t="s">
+      <c r="C59" s="329" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -5384,24 +5395,24 @@
       <c r="E59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="208" t="s">
+      <c r="F59" s="207" t="s">
         <v>6</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="281" t="s">
+      <c r="H59" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="J59" s="199"/>
+      <c r="J59" s="198"/>
     </row>
     <row r="60" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="298"/>
+      <c r="A60" s="305"/>
       <c r="B60" s="110"/>
-      <c r="C60" s="322"/>
+      <c r="C60" s="329"/>
       <c r="D60" s="5" t="s">
         <v>18</v>
       </c>
@@ -5414,7 +5425,7 @@
       <c r="G60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="281" t="s">
+      <c r="H60" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I60" s="5" t="s">
@@ -5423,9 +5434,9 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="298"/>
+      <c r="A61" s="305"/>
       <c r="B61" s="110"/>
-      <c r="C61" s="322"/>
+      <c r="C61" s="329"/>
       <c r="D61" s="12" t="s">
         <v>18</v>
       </c>
@@ -5438,7 +5449,7 @@
       <c r="G61" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="281" t="s">
+      <c r="H61" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I61" s="12" t="s">
@@ -5447,8 +5458,8 @@
       <c r="J61" s="12"/>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="297"/>
-      <c r="B62" s="174"/>
+      <c r="A62" s="306"/>
+      <c r="B62" s="173"/>
       <c r="C62" s="36" t="s">
         <v>46</v>
       </c>
@@ -5464,7 +5475,7 @@
       <c r="G62" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="281" t="s">
+      <c r="H62" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I62" s="42" t="s">
@@ -5473,13 +5484,13 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="353" t="s">
+      <c r="A63" s="297" t="s">
         <v>51</v>
       </c>
       <c r="B63" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="172" t="s">
+      <c r="C63" s="171" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="73" t="s">
@@ -5494,7 +5505,7 @@
       <c r="G63" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="281" t="s">
+      <c r="H63" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I63" s="73" t="s">
@@ -5505,7 +5516,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="354"/>
+      <c r="A64" s="298"/>
       <c r="B64" s="112" t="s">
         <v>51</v>
       </c>
@@ -5524,7 +5535,7 @@
       <c r="G64" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="281" t="s">
+      <c r="H64" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I64" s="75" t="s">
@@ -5538,7 +5549,7 @@
       <c r="A65" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="175"/>
+      <c r="B65" s="174"/>
       <c r="C65" s="45" t="s">
         <v>54</v>
       </c>
@@ -5554,7 +5565,7 @@
       <c r="G65" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H65" s="281" t="s">
+      <c r="H65" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I65" s="43" t="s">
@@ -5565,13 +5576,13 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="360" t="s">
+      <c r="A66" s="307" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="365" t="s">
+      <c r="B66" s="312" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="370" t="s">
+      <c r="C66" s="317" t="s">
         <v>55</v>
       </c>
       <c r="D66" s="57" t="s">
@@ -5586,7 +5597,7 @@
       <c r="G66" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="281" t="s">
+      <c r="H66" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I66" s="57" t="s">
@@ -5595,9 +5606,9 @@
       <c r="J66" s="57"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="361"/>
-      <c r="B67" s="366"/>
-      <c r="C67" s="371"/>
+      <c r="A67" s="308"/>
+      <c r="B67" s="313"/>
+      <c r="C67" s="318"/>
       <c r="D67" s="46" t="s">
         <v>18</v>
       </c>
@@ -5610,7 +5621,7 @@
       <c r="G67" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="281" t="s">
+      <c r="H67" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I67" s="57" t="s">
@@ -5619,9 +5630,9 @@
       <c r="J67" s="46"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="361"/>
-      <c r="B68" s="366"/>
-      <c r="C68" s="371"/>
+      <c r="A68" s="308"/>
+      <c r="B68" s="313"/>
+      <c r="C68" s="318"/>
       <c r="D68" s="59" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +5645,7 @@
       <c r="G68" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="281" t="s">
+      <c r="H68" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I68" s="59" t="s">
@@ -5643,25 +5654,25 @@
       <c r="J68" s="59"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="361"/>
-      <c r="B69" s="367"/>
-      <c r="C69" s="371"/>
+      <c r="A69" s="308"/>
+      <c r="B69" s="314"/>
+      <c r="C69" s="318"/>
       <c r="D69" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="190" t="s">
+      <c r="F69" s="189" t="s">
         <v>532</v>
       </c>
       <c r="G69" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H69" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I69" s="281" t="s">
+      <c r="H69" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I69" s="280" t="s">
         <v>543</v>
       </c>
       <c r="J69" s="22" t="s">
@@ -5669,25 +5680,25 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="361"/>
-      <c r="B70" s="367"/>
-      <c r="C70" s="371"/>
+      <c r="A70" s="308"/>
+      <c r="B70" s="314"/>
+      <c r="C70" s="318"/>
       <c r="D70" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="190" t="s">
+      <c r="F70" s="189" t="s">
         <v>536</v>
       </c>
       <c r="G70" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H70" s="281" t="s">
+      <c r="H70" s="280" t="s">
         <v>547</v>
       </c>
-      <c r="I70" s="281" t="s">
+      <c r="I70" s="280" t="s">
         <v>543</v>
       </c>
       <c r="J70" s="22" t="s">
@@ -5695,25 +5706,25 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="361"/>
-      <c r="B71" s="367"/>
-      <c r="C71" s="371"/>
+      <c r="A71" s="308"/>
+      <c r="B71" s="314"/>
+      <c r="C71" s="318"/>
       <c r="D71" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="190" t="s">
+      <c r="F71" s="189" t="s">
         <v>537</v>
       </c>
       <c r="G71" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H71" s="281" t="s">
+      <c r="H71" s="280" t="s">
         <v>548</v>
       </c>
-      <c r="I71" s="281" t="s">
+      <c r="I71" s="280" t="s">
         <v>543</v>
       </c>
       <c r="J71" s="22" t="s">
@@ -5721,25 +5732,25 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="361"/>
-      <c r="B72" s="367"/>
-      <c r="C72" s="371"/>
+      <c r="A72" s="308"/>
+      <c r="B72" s="314"/>
+      <c r="C72" s="318"/>
       <c r="D72" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="190" t="s">
+      <c r="F72" s="189" t="s">
         <v>555</v>
       </c>
       <c r="G72" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H72" s="281" t="s">
+      <c r="H72" s="280" t="s">
         <v>549</v>
       </c>
-      <c r="I72" s="281" t="s">
+      <c r="I72" s="280" t="s">
         <v>543</v>
       </c>
       <c r="J72" s="22" t="s">
@@ -5747,25 +5758,25 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="361"/>
-      <c r="B73" s="367"/>
-      <c r="C73" s="371"/>
+      <c r="A73" s="308"/>
+      <c r="B73" s="314"/>
+      <c r="C73" s="318"/>
       <c r="D73" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="190" t="s">
+      <c r="F73" s="189" t="s">
         <v>538</v>
       </c>
       <c r="G73" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H73" s="281" t="s">
+      <c r="H73" s="280" t="s">
         <v>550</v>
       </c>
-      <c r="I73" s="281" t="s">
+      <c r="I73" s="280" t="s">
         <v>543</v>
       </c>
       <c r="J73" s="22" t="s">
@@ -5773,25 +5784,25 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="361"/>
-      <c r="B74" s="367"/>
-      <c r="C74" s="372"/>
+      <c r="A74" s="308"/>
+      <c r="B74" s="314"/>
+      <c r="C74" s="319"/>
       <c r="D74" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="190" t="s">
+      <c r="F74" s="189" t="s">
         <v>540</v>
       </c>
       <c r="G74" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="H74" s="281" t="s">
+      <c r="H74" s="280" t="s">
         <v>551</v>
       </c>
-      <c r="I74" s="281" t="s">
+      <c r="I74" s="280" t="s">
         <v>543</v>
       </c>
       <c r="J74" s="22" t="s">
@@ -5799,63 +5810,63 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="361"/>
-      <c r="B75" s="367"/>
-      <c r="C75" s="237" t="s">
+      <c r="A75" s="308"/>
+      <c r="B75" s="314"/>
+      <c r="C75" s="236" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="234" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="234" t="s">
+      <c r="D75" s="233" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="234" t="s">
+      <c r="F75" s="233" t="s">
         <v>228</v>
       </c>
-      <c r="G75" s="234" t="s">
+      <c r="G75" s="233" t="s">
         <v>218</v>
       </c>
-      <c r="H75" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I75" s="234" t="s">
+      <c r="H75" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I75" s="233" t="s">
         <v>542</v>
       </c>
-      <c r="J75" s="234"/>
+      <c r="J75" s="233"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="361"/>
-      <c r="B76" s="368"/>
-      <c r="C76" s="237" t="s">
+      <c r="A76" s="308"/>
+      <c r="B76" s="315"/>
+      <c r="C76" s="236" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="234" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="234" t="s">
+      <c r="D76" s="233" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="233" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="234" t="s">
+      <c r="F76" s="233" t="s">
         <v>228</v>
       </c>
-      <c r="G76" s="234" t="s">
+      <c r="G76" s="233" t="s">
         <v>218</v>
       </c>
-      <c r="H76" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I76" s="234" t="s">
+      <c r="H76" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I76" s="233" t="s">
         <v>542</v>
       </c>
-      <c r="J76" s="234"/>
+      <c r="J76" s="233"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="361"/>
-      <c r="B77" s="365" t="s">
+      <c r="A77" s="308"/>
+      <c r="B77" s="312" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="355" t="s">
+      <c r="C77" s="299" t="s">
         <v>59</v>
       </c>
       <c r="D77" s="57" t="s">
@@ -5870,7 +5881,7 @@
       <c r="G77" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="281" t="s">
+      <c r="H77" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I77" s="57" t="s">
@@ -5879,9 +5890,9 @@
       <c r="J77" s="57"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="361"/>
-      <c r="B78" s="366"/>
-      <c r="C78" s="356"/>
+      <c r="A78" s="308"/>
+      <c r="B78" s="313"/>
+      <c r="C78" s="300"/>
       <c r="D78" s="59" t="s">
         <v>18</v>
       </c>
@@ -5894,7 +5905,7 @@
       <c r="G78" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H78" s="281" t="s">
+      <c r="H78" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I78" s="59" t="s">
@@ -5903,24 +5914,24 @@
       <c r="J78" s="59"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="361"/>
-      <c r="B79" s="366"/>
-      <c r="C79" s="171" t="s">
+      <c r="A79" s="308"/>
+      <c r="B79" s="313"/>
+      <c r="C79" s="170" t="s">
         <v>229</v>
       </c>
-      <c r="D79" s="238" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="239" t="s">
+      <c r="D79" s="237" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="F79" s="241" t="s">
+      <c r="F79" s="240" t="s">
         <v>196</v>
       </c>
       <c r="G79" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="H79" s="281" t="s">
+      <c r="H79" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I79" s="62" t="s">
@@ -5929,40 +5940,40 @@
       <c r="J79" s="62"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="361"/>
-      <c r="B80" s="369"/>
-      <c r="C80" s="171" t="s">
+      <c r="A80" s="308"/>
+      <c r="B80" s="316"/>
+      <c r="C80" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="D80" s="238" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="239" t="s">
+      <c r="D80" s="237" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="240" t="s">
+      <c r="F80" s="239" t="s">
         <v>196</v>
       </c>
-      <c r="G80" s="239" t="s">
+      <c r="G80" s="238" t="s">
         <v>218</v>
       </c>
-      <c r="H80" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I80" s="239" t="s">
+      <c r="H80" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I80" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="J80" s="239"/>
+      <c r="J80" s="238"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="361"/>
-      <c r="B81" s="243" t="s">
+      <c r="A81" s="308"/>
+      <c r="B81" s="242" t="s">
         <v>148</v>
       </c>
       <c r="C81" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="170" t="s">
+      <c r="D81" s="169" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="62" t="s">
@@ -5974,7 +5985,7 @@
       <c r="G81" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H81" s="281" t="s">
+      <c r="H81" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I81" s="62" t="s">
@@ -5983,36 +5994,36 @@
       <c r="J81" s="62"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="361"/>
-      <c r="B82" s="244" t="s">
+      <c r="A82" s="308"/>
+      <c r="B82" s="243" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="176" t="s">
+      <c r="C82" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="176" t="s">
+      <c r="D82" s="175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="175" t="s">
         <v>99</v>
       </c>
       <c r="F82" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="176" t="s">
+      <c r="G82" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I82" s="176" t="s">
+      <c r="H82" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I82" s="175" t="s">
         <v>542</v>
       </c>
-      <c r="J82" s="176"/>
+      <c r="J82" s="175"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="361"/>
-      <c r="B83" s="245" t="s">
+      <c r="A83" s="308"/>
+      <c r="B83" s="244" t="s">
         <v>231</v>
       </c>
       <c r="C83" s="62" t="s">
@@ -6024,13 +6035,13 @@
       <c r="E83" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="240" t="s">
+      <c r="F83" s="239" t="s">
         <v>196</v>
       </c>
       <c r="G83" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="H83" s="281" t="s">
+      <c r="H83" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I83" s="62" t="s">
@@ -6039,66 +6050,66 @@
       <c r="J83" s="62"/>
     </row>
     <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="362"/>
-      <c r="B84" s="242" t="s">
+      <c r="A84" s="309"/>
+      <c r="B84" s="241" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="238" t="s">
+      <c r="C84" s="237" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="239" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="239" t="s">
+      <c r="D84" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="238" t="s">
         <v>234</v>
       </c>
-      <c r="F84" s="240" t="s">
+      <c r="F84" s="239" t="s">
         <v>228</v>
       </c>
-      <c r="G84" s="239" t="s">
+      <c r="G84" s="238" t="s">
         <v>218</v>
       </c>
-      <c r="H84" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I84" s="239" t="s">
+      <c r="H84" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I84" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="J84" s="239"/>
+      <c r="J84" s="238"/>
     </row>
     <row r="85" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="296" t="s">
+      <c r="A85" s="304" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="236" t="s">
+      <c r="B85" s="235" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="235" t="s">
+      <c r="C85" s="234" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="232" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="232" t="s">
+      <c r="D85" s="231" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="F85" s="233" t="s">
+      <c r="F85" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="232" t="s">
+      <c r="G85" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I85" s="232" t="s">
+      <c r="H85" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I85" s="231" t="s">
         <v>542</v>
       </c>
-      <c r="J85" s="232"/>
+      <c r="J85" s="231"/>
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="298"/>
-      <c r="B86" s="357" t="s">
+      <c r="A86" s="305"/>
+      <c r="B86" s="301" t="s">
         <v>193</v>
       </c>
       <c r="C86" s="42" t="s">
@@ -6116,17 +6127,17 @@
       <c r="G86" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I86" s="232" t="s">
+      <c r="H86" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I86" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="298"/>
-      <c r="B87" s="358"/>
+      <c r="A87" s="305"/>
+      <c r="B87" s="302"/>
       <c r="C87" s="42" t="s">
         <v>65</v>
       </c>
@@ -6142,17 +6153,17 @@
       <c r="G87" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H87" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I87" s="232" t="s">
+      <c r="H87" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I87" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="298"/>
-      <c r="B88" s="358"/>
+      <c r="A88" s="305"/>
+      <c r="B88" s="302"/>
       <c r="C88" s="42" t="s">
         <v>69</v>
       </c>
@@ -6168,7 +6179,7 @@
       <c r="G88" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="H88" s="281" t="s">
+      <c r="H88" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I88" s="42" t="s">
@@ -6179,8 +6190,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="298"/>
-      <c r="B89" s="359"/>
+      <c r="A89" s="305"/>
+      <c r="B89" s="303"/>
       <c r="C89" s="42" t="s">
         <v>70</v>
       </c>
@@ -6196,7 +6207,7 @@
       <c r="G89" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="H89" s="281" t="s">
+      <c r="H89" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I89" s="42" t="s">
@@ -6207,8 +6218,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="297"/>
-      <c r="B90" s="222" t="s">
+      <c r="A90" s="306"/>
+      <c r="B90" s="221" t="s">
         <v>194</v>
       </c>
       <c r="C90" s="22" t="s">
@@ -6226,22 +6237,22 @@
       <c r="G90" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H90" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I90" s="232" t="s">
+      <c r="H90" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I90" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J90" s="22"/>
     </row>
     <row r="91" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="306" t="s">
+      <c r="A91" s="359" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="304" t="s">
+      <c r="B91" s="325" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="302" t="s">
+      <c r="C91" s="323" t="s">
         <v>72</v>
       </c>
       <c r="D91" s="78" t="s">
@@ -6256,7 +6267,7 @@
       <c r="G91" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="281" t="s">
+      <c r="H91" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I91" s="78" t="s">
@@ -6267,9 +6278,9 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="307"/>
-      <c r="B92" s="305"/>
-      <c r="C92" s="303"/>
+      <c r="A92" s="360"/>
+      <c r="B92" s="326"/>
+      <c r="C92" s="324"/>
       <c r="D92" s="80" t="s">
         <v>18</v>
       </c>
@@ -6282,7 +6293,7 @@
       <c r="G92" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H92" s="281" t="s">
+      <c r="H92" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I92" s="82" t="s">
@@ -6291,8 +6302,8 @@
       <c r="J92" s="82"/>
     </row>
     <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="307"/>
-      <c r="B93" s="220" t="s">
+      <c r="A93" s="360"/>
+      <c r="B93" s="219" t="s">
         <v>153</v>
       </c>
       <c r="C93" s="83" t="s">
@@ -6310,17 +6321,17 @@
       <c r="G93" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H93" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I93" s="232" t="s">
+      <c r="H93" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I93" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J93" s="83"/>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="307"/>
-      <c r="B94" s="221" t="s">
+      <c r="A94" s="360"/>
+      <c r="B94" s="220" t="s">
         <v>154</v>
       </c>
       <c r="C94" s="83" t="s">
@@ -6338,17 +6349,17 @@
       <c r="G94" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H94" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I94" s="232" t="s">
+      <c r="H94" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I94" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J94" s="83"/>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="307"/>
-      <c r="B95" s="221" t="s">
+      <c r="A95" s="360"/>
+      <c r="B95" s="220" t="s">
         <v>155</v>
       </c>
       <c r="C95" s="83" t="s">
@@ -6366,17 +6377,17 @@
       <c r="G95" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H95" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I95" s="232" t="s">
+      <c r="H95" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I95" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J95" s="83"/>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="308"/>
-      <c r="B96" s="221" t="s">
+      <c r="A96" s="361"/>
+      <c r="B96" s="220" t="s">
         <v>156</v>
       </c>
       <c r="C96" s="85" t="s">
@@ -6394,7 +6405,7 @@
       <c r="G96" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="281" t="s">
+      <c r="H96" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I96" s="85" t="s">
@@ -6405,10 +6416,10 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="296" t="s">
+      <c r="A97" s="304" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="218" t="s">
+      <c r="B97" s="217" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="36" t="s">
@@ -6426,7 +6437,7 @@
       <c r="G97" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="281" t="s">
+      <c r="H97" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I97" s="42" t="s">
@@ -6435,8 +6446,8 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="297"/>
-      <c r="B98" s="219" t="s">
+      <c r="A98" s="306"/>
+      <c r="B98" s="218" t="s">
         <v>160</v>
       </c>
       <c r="C98" s="20" t="s">
@@ -6454,10 +6465,10 @@
       <c r="G98" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H98" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I98" s="284" t="s">
+      <c r="H98" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I98" s="283" t="s">
         <v>542</v>
       </c>
       <c r="J98" s="17" t="s">
@@ -6465,10 +6476,10 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="311" t="s">
+      <c r="A99" s="364" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="309" t="s">
+      <c r="B99" s="362" t="s">
         <v>161</v>
       </c>
       <c r="C99" s="49" t="s">
@@ -6486,7 +6497,7 @@
       <c r="G99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H99" s="281" t="s">
+      <c r="H99" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I99" s="48" t="s">
@@ -6495,8 +6506,8 @@
       <c r="J99" s="48"/>
     </row>
     <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="312"/>
-      <c r="B100" s="310"/>
+      <c r="A100" s="365"/>
+      <c r="B100" s="363"/>
       <c r="C100" s="51" t="s">
         <v>87</v>
       </c>
@@ -6512,7 +6523,7 @@
       <c r="G100" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="H100" s="281" t="s">
+      <c r="H100" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I100" s="50" t="s">
@@ -6523,7 +6534,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="313"/>
+      <c r="A101" s="366"/>
       <c r="B101" s="114" t="s">
         <v>162</v>
       </c>
@@ -6542,7 +6553,7 @@
       <c r="G101" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H101" s="281" t="s">
+      <c r="H101" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I101" s="53" t="s">
@@ -6551,11 +6562,11 @@
       <c r="J101" s="53"/>
     </row>
     <row r="102" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="296" t="s">
+      <c r="A102" s="304" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="178"/>
-      <c r="C102" s="351" t="s">
+      <c r="B102" s="177"/>
+      <c r="C102" s="292" t="s">
         <v>89</v>
       </c>
       <c r="D102" s="39" t="s">
@@ -6570,7 +6581,7 @@
       <c r="G102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H102" s="281" t="s">
+      <c r="H102" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I102" s="39" t="s">
@@ -6579,9 +6590,9 @@
       <c r="J102" s="38"/>
     </row>
     <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="298"/>
-      <c r="B103" s="179"/>
-      <c r="C103" s="352"/>
+      <c r="A103" s="305"/>
+      <c r="B103" s="178"/>
+      <c r="C103" s="293"/>
       <c r="D103" s="41" t="s">
         <v>18</v>
       </c>
@@ -6594,7 +6605,7 @@
       <c r="G103" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H103" s="281" t="s">
+      <c r="H103" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I103" s="41" t="s">
@@ -6605,7 +6616,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="297"/>
+      <c r="A104" s="306"/>
       <c r="B104" s="115"/>
       <c r="C104" s="20" t="s">
         <v>90</v>
@@ -6622,21 +6633,21 @@
       <c r="G104" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H104" s="281" t="s">
+      <c r="H104" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="J104" s="201" t="s">
+      <c r="J104" s="200" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="317" t="s">
+      <c r="A105" s="355" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="217" t="s">
+      <c r="B105" s="216" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="87" t="s">
@@ -6654,20 +6665,20 @@
       <c r="G105" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="281" t="s">
+      <c r="H105" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I105" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="J105" s="200"/>
+      <c r="J105" s="199"/>
     </row>
     <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="318"/>
-      <c r="B106" s="217" t="s">
+      <c r="A106" s="356"/>
+      <c r="B106" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="C106" s="177" t="s">
+      <c r="C106" s="176" t="s">
         <v>93</v>
       </c>
       <c r="D106" s="90" t="s">
@@ -6682,17 +6693,17 @@
       <c r="G106" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="H106" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I106" s="232" t="s">
+      <c r="H106" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I106" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J106" s="91"/>
     </row>
     <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="319"/>
-      <c r="B107" s="217" t="s">
+      <c r="A107" s="357"/>
+      <c r="B107" s="216" t="s">
         <v>166</v>
       </c>
       <c r="C107" s="87" t="s">
@@ -6710,7 +6721,7 @@
       <c r="G107" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H107" s="281" t="s">
+      <c r="H107" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I107" s="88" t="s">
@@ -6719,10 +6730,10 @@
       <c r="J107" s="89"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="288" t="s">
+      <c r="A108" s="294" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="216" t="s">
+      <c r="B108" s="215" t="s">
         <v>169</v>
       </c>
       <c r="C108" s="36" t="s">
@@ -6740,7 +6751,7 @@
       <c r="G108" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="281" t="s">
+      <c r="H108" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I108" s="42" t="s">
@@ -6749,8 +6760,8 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="289"/>
-      <c r="B109" s="181" t="s">
+      <c r="A109" s="295"/>
+      <c r="B109" s="180" t="s">
         <v>170</v>
       </c>
       <c r="C109" s="26" t="s">
@@ -6768,28 +6779,28 @@
       <c r="G109" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H109" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I109" s="230" t="s">
+      <c r="H109" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I109" s="229" t="s">
         <v>542</v>
       </c>
-      <c r="J109" s="230" t="s">
+      <c r="J109" s="229" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="290"/>
-      <c r="B110" s="227" t="s">
+      <c r="A110" s="296"/>
+      <c r="B110" s="226" t="s">
         <v>220</v>
       </c>
-      <c r="C110" s="228" t="s">
+      <c r="C110" s="227" t="s">
         <v>219</v>
       </c>
-      <c r="D110" s="229" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="201" t="s">
+      <c r="D110" s="228" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="200" t="s">
         <v>56</v>
       </c>
       <c r="F110" s="17" t="s">
@@ -6798,46 +6809,46 @@
       <c r="G110" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="H110" s="281" t="s">
+      <c r="H110" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="J110" s="201"/>
+      <c r="J110" s="200"/>
     </row>
     <row r="111" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="363" t="s">
+      <c r="A111" s="310" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="223" t="s">
+      <c r="B111" s="222" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="224" t="s">
+      <c r="C111" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="D111" s="225" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="226" t="s">
+      <c r="D111" s="224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="F111" s="226" t="s">
+      <c r="F111" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="225" t="s">
+      <c r="G111" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="H111" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I111" s="232" t="s">
+      <c r="H111" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I111" s="231" t="s">
         <v>542</v>
       </c>
-      <c r="J111" s="226"/>
+      <c r="J111" s="225"/>
     </row>
     <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="364"/>
+      <c r="A112" s="311"/>
       <c r="B112" s="116" t="s">
         <v>174</v>
       </c>
@@ -6856,16 +6867,16 @@
       <c r="G112" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="H112" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I112" s="232" t="s">
+      <c r="H112" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I112" s="231" t="s">
         <v>542</v>
       </c>
       <c r="J112" s="94"/>
     </row>
     <row r="113" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="296" t="s">
+      <c r="A113" s="304" t="s">
         <v>175</v>
       </c>
       <c r="B113" s="117" t="s">
@@ -6886,7 +6897,7 @@
       <c r="G113" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="281" t="s">
+      <c r="H113" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I113" s="15" t="s">
@@ -6895,8 +6906,8 @@
       <c r="J113" s="43"/>
     </row>
     <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="298"/>
-      <c r="B114" s="182" t="s">
+      <c r="A114" s="305"/>
+      <c r="B114" s="181" t="s">
         <v>110</v>
       </c>
       <c r="C114" s="36" t="s">
@@ -6914,7 +6925,7 @@
       <c r="G114" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H114" s="281" t="s">
+      <c r="H114" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I114" s="37" t="s">
@@ -6925,8 +6936,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="297"/>
-      <c r="B115" s="231" t="s">
+      <c r="A115" s="306"/>
+      <c r="B115" s="230" t="s">
         <v>119</v>
       </c>
       <c r="C115" s="26" t="s">
@@ -6944,7 +6955,7 @@
       <c r="G115" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H115" s="281" t="s">
+      <c r="H115" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I115" s="15" t="s">
@@ -6955,10 +6966,10 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="288" t="s">
+      <c r="A116" s="294" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="180" t="s">
+      <c r="B116" s="179" t="s">
         <v>112</v>
       </c>
       <c r="C116" s="36" t="s">
@@ -6976,7 +6987,7 @@
       <c r="G116" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H116" s="281" t="s">
+      <c r="H116" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I116" s="37" t="s">
@@ -6985,7 +6996,7 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="297"/>
+      <c r="A117" s="306"/>
       <c r="B117" s="113" t="s">
         <v>223</v>
       </c>
@@ -7004,7 +7015,7 @@
       <c r="G117" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="H117" s="281" t="s">
+      <c r="H117" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I117" s="18" t="s">
@@ -7013,37 +7024,37 @@
       <c r="J117" s="17"/>
     </row>
     <row r="118" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="296" t="s">
+      <c r="A118" s="304" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="175" t="s">
+      <c r="B118" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="C118" s="246" t="s">
+      <c r="C118" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="D118" s="246" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="248" t="s">
+      <c r="D118" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="248" t="s">
+      <c r="F118" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="247" t="s">
+      <c r="G118" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="H118" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I118" s="247" t="s">
+      <c r="H118" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I118" s="246" t="s">
         <v>542</v>
       </c>
-      <c r="J118" s="248"/>
+      <c r="J118" s="247"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="297"/>
+      <c r="A119" s="306"/>
       <c r="B119" s="113" t="s">
         <v>251</v>
       </c>
@@ -7062,7 +7073,7 @@
       <c r="G119" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H119" s="281" t="s">
+      <c r="H119" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I119" s="18" t="s">
@@ -7092,7 +7103,7 @@
       <c r="G120" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="281" t="s">
+      <c r="H120" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I120" s="14" t="s">
@@ -7101,37 +7112,37 @@
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="296" t="s">
+      <c r="A121" s="304" t="s">
         <v>179</v>
       </c>
-      <c r="B121" s="175" t="s">
+      <c r="B121" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="246" t="s">
+      <c r="C121" s="245" t="s">
         <v>238</v>
       </c>
-      <c r="D121" s="247" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="248" t="s">
+      <c r="D121" s="246" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="247" t="s">
         <v>217</v>
       </c>
-      <c r="F121" s="248" t="s">
+      <c r="F121" s="247" t="s">
         <v>228</v>
       </c>
-      <c r="G121" s="247" t="s">
+      <c r="G121" s="246" t="s">
         <v>218</v>
       </c>
-      <c r="H121" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I121" s="247" t="s">
+      <c r="H121" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I121" s="246" t="s">
         <v>542</v>
       </c>
-      <c r="J121" s="248"/>
+      <c r="J121" s="247"/>
     </row>
     <row r="122" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="297"/>
+      <c r="A122" s="306"/>
       <c r="B122" s="113" t="s">
         <v>185</v>
       </c>
@@ -7150,7 +7161,7 @@
       <c r="G122" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="281" t="s">
+      <c r="H122" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I122" s="18" t="s">
@@ -7180,7 +7191,7 @@
       <c r="G123" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H123" s="281" t="s">
+      <c r="H123" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I123" s="14" t="s">
@@ -7210,7 +7221,7 @@
       <c r="G124" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H124" s="281" t="s">
+      <c r="H124" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I124" s="14" t="s">
@@ -7240,7 +7251,7 @@
       <c r="G125" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H125" s="281" t="s">
+      <c r="H125" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I125" s="14" t="s">
@@ -7272,7 +7283,7 @@
       <c r="G126" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H126" s="281" t="s">
+      <c r="H126" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I126" s="14" t="s">
@@ -7304,7 +7315,7 @@
       <c r="G127" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H127" s="281" t="s">
+      <c r="H127" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I127" s="14" t="s">
@@ -7336,7 +7347,7 @@
       <c r="G128" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H128" s="281" t="s">
+      <c r="H128" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I128" s="11" t="s">
@@ -7368,7 +7379,7 @@
       <c r="G129" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H129" s="281" t="s">
+      <c r="H129" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I129" s="44" t="s">
@@ -7377,11 +7388,11 @@
       <c r="J129" s="43"/>
     </row>
     <row r="130" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="348" t="s">
+      <c r="A130" s="289" t="s">
         <v>190</v>
       </c>
-      <c r="B130" s="183"/>
-      <c r="C130" s="299" t="s">
+      <c r="B130" s="182"/>
+      <c r="C130" s="320" t="s">
         <v>132</v>
       </c>
       <c r="D130" s="95" t="s">
@@ -7396,7 +7407,7 @@
       <c r="G130" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H130" s="281" t="s">
+      <c r="H130" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I130" s="95" t="s">
@@ -7407,9 +7418,9 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="349"/>
-      <c r="B131" s="183"/>
-      <c r="C131" s="300"/>
+      <c r="A131" s="290"/>
+      <c r="B131" s="182"/>
+      <c r="C131" s="321"/>
       <c r="D131" s="97" t="s">
         <v>18</v>
       </c>
@@ -7422,7 +7433,7 @@
       <c r="G131" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H131" s="281" t="s">
+      <c r="H131" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I131" s="95" t="s">
@@ -7433,9 +7444,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="349"/>
-      <c r="B132" s="183"/>
-      <c r="C132" s="300"/>
+      <c r="A132" s="290"/>
+      <c r="B132" s="182"/>
+      <c r="C132" s="321"/>
       <c r="D132" s="100" t="s">
         <v>18</v>
       </c>
@@ -7448,7 +7459,7 @@
       <c r="G132" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H132" s="281" t="s">
+      <c r="H132" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I132" s="95" t="s">
@@ -7459,9 +7470,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="349"/>
-      <c r="B133" s="184"/>
-      <c r="C133" s="300"/>
+      <c r="A133" s="290"/>
+      <c r="B133" s="183"/>
+      <c r="C133" s="321"/>
       <c r="D133" s="100" t="s">
         <v>18</v>
       </c>
@@ -7474,7 +7485,7 @@
       <c r="G133" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="281" t="s">
+      <c r="H133" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I133" s="95" t="s">
@@ -7485,9 +7496,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="349"/>
-      <c r="B134" s="185"/>
-      <c r="C134" s="301"/>
+      <c r="A134" s="290"/>
+      <c r="B134" s="184"/>
+      <c r="C134" s="322"/>
       <c r="D134" s="101" t="s">
         <v>18</v>
       </c>
@@ -7500,7 +7511,7 @@
       <c r="G134" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="H134" s="281" t="s">
+      <c r="H134" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I134" s="95" t="s">
@@ -7511,9 +7522,9 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="349"/>
-      <c r="B135" s="185"/>
-      <c r="C135" s="346" t="s">
+      <c r="A135" s="290"/>
+      <c r="B135" s="184"/>
+      <c r="C135" s="287" t="s">
         <v>137</v>
       </c>
       <c r="D135" s="103" t="s">
@@ -7528,7 +7539,7 @@
       <c r="G135" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="281" t="s">
+      <c r="H135" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I135" s="95" t="s">
@@ -7539,9 +7550,9 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="349"/>
-      <c r="B136" s="185"/>
-      <c r="C136" s="347"/>
+      <c r="A136" s="290"/>
+      <c r="B136" s="184"/>
+      <c r="C136" s="288"/>
       <c r="D136" s="105" t="s">
         <v>18</v>
       </c>
@@ -7554,7 +7565,7 @@
       <c r="G136" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="H136" s="281" t="s">
+      <c r="H136" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I136" s="95" t="s">
@@ -7565,9 +7576,9 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="350"/>
-      <c r="B137" s="186"/>
-      <c r="C137" s="215" t="s">
+      <c r="A137" s="291"/>
+      <c r="B137" s="185"/>
+      <c r="C137" s="214" t="s">
         <v>139</v>
       </c>
       <c r="D137" s="144" t="s">
@@ -7582,7 +7593,7 @@
       <c r="G137" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="H137" s="281" t="s">
+      <c r="H137" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I137" s="95" t="s">
@@ -7593,7 +7604,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="314" t="s">
+      <c r="A138" s="369" t="s">
         <v>198</v>
       </c>
       <c r="B138" s="149"/>
@@ -7612,7 +7623,7 @@
       <c r="G138" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H138" s="281" t="s">
+      <c r="H138" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I138" s="19" t="s">
@@ -7621,7 +7632,7 @@
       <c r="J138" s="19"/>
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="315"/>
+      <c r="A139" s="370"/>
       <c r="B139" s="150"/>
       <c r="C139" s="2" t="s">
         <v>200</v>
@@ -7638,7 +7649,7 @@
       <c r="G139" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H139" s="281" t="s">
+      <c r="H139" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -7647,7 +7658,7 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="316"/>
+      <c r="A140" s="371"/>
       <c r="B140" s="152"/>
       <c r="C140" s="25" t="s">
         <v>261</v>
@@ -7664,7 +7675,7 @@
       <c r="G140" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="H140" s="281" t="s">
+      <c r="H140" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I140" s="25" t="s">
@@ -7673,7 +7684,7 @@
       <c r="J140" s="25"/>
     </row>
     <row r="141" spans="1:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="314" t="s">
+      <c r="A141" s="369" t="s">
         <v>206</v>
       </c>
       <c r="B141" s="149"/>
@@ -7692,7 +7703,7 @@
       <c r="G141" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H141" s="281" t="s">
+      <c r="H141" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I141" s="25" t="s">
@@ -7701,7 +7712,7 @@
       <c r="J141" s="19"/>
     </row>
     <row r="142" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="315"/>
+      <c r="A142" s="370"/>
       <c r="B142" s="150"/>
       <c r="C142" s="154" t="s">
         <v>204</v>
@@ -7718,7 +7729,7 @@
       <c r="G142" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H142" s="281" t="s">
+      <c r="H142" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I142" s="25" t="s">
@@ -7727,7 +7738,7 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="316"/>
+      <c r="A143" s="371"/>
       <c r="B143" s="151"/>
       <c r="C143" s="148" t="s">
         <v>205</v>
@@ -7744,7 +7755,7 @@
       <c r="G143" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="H143" s="281" t="s">
+      <c r="H143" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I143" s="25" t="s">
@@ -7772,7 +7783,7 @@
       <c r="G144" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="H144" s="281" t="s">
+      <c r="H144" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I144" s="25" t="s">
@@ -7800,7 +7811,7 @@
       <c r="G145" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="H145" s="281" t="s">
+      <c r="H145" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I145" s="25" t="s">
@@ -7828,7 +7839,7 @@
       <c r="G146" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H146" s="281" t="s">
+      <c r="H146" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I146" s="6" t="s">
@@ -7837,38 +7848,38 @@
       <c r="J146" s="6"/>
     </row>
     <row r="147" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="294" t="s">
+      <c r="A147" s="367" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="249" t="s">
+      <c r="B147" s="248" t="s">
         <v>265</v>
       </c>
-      <c r="C147" s="248" t="s">
+      <c r="C147" s="247" t="s">
         <v>262</v>
       </c>
-      <c r="D147" s="246" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" s="246" t="s">
+      <c r="D147" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="245" t="s">
         <v>264</v>
       </c>
-      <c r="F147" s="246" t="s">
+      <c r="F147" s="245" t="s">
         <v>228</v>
       </c>
-      <c r="G147" s="246" t="s">
+      <c r="G147" s="245" t="s">
         <v>254</v>
       </c>
-      <c r="H147" s="281" t="s">
-        <v>546</v>
-      </c>
-      <c r="I147" s="246" t="s">
+      <c r="H147" s="280" t="s">
+        <v>546</v>
+      </c>
+      <c r="I147" s="245" t="s">
         <v>542</v>
       </c>
-      <c r="J147" s="246"/>
+      <c r="J147" s="245"/>
     </row>
     <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="295"/>
-      <c r="B148" s="250" t="s">
+      <c r="A148" s="368"/>
+      <c r="B148" s="249" t="s">
         <v>266</v>
       </c>
       <c r="C148" s="17" t="s">
@@ -7886,7 +7897,7 @@
       <c r="G148" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H148" s="281" t="s">
+      <c r="H148" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I148" s="20" t="s">
@@ -7914,7 +7925,7 @@
       <c r="G149" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H149" s="281" t="s">
+      <c r="H149" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I149" s="20" t="s">
@@ -7942,7 +7953,7 @@
       <c r="G150" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H150" s="281" t="s">
+      <c r="H150" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I150" s="20" t="s">
@@ -7970,7 +7981,7 @@
       <c r="G151" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H151" s="281" t="s">
+      <c r="H151" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I151" s="20" t="s">
@@ -7998,7 +8009,7 @@
       <c r="G152" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H152" s="281" t="s">
+      <c r="H152" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I152" s="20" t="s">
@@ -8026,7 +8037,7 @@
       <c r="G153" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H153" s="281" t="s">
+      <c r="H153" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I153" s="20" t="s">
@@ -8054,7 +8065,7 @@
       <c r="G154" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H154" s="281" t="s">
+      <c r="H154" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I154" s="20" t="s">
@@ -8082,7 +8093,7 @@
       <c r="G155" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H155" s="281" t="s">
+      <c r="H155" s="280" t="s">
         <v>546</v>
       </c>
       <c r="I155" s="20" t="s">
@@ -9136,6 +9147,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B28:B46"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A28:A51"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C28:C41"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B12:B27"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="A130:A137"/>
     <mergeCell ref="C102:C103"/>
@@ -9149,37 +9188,9 @@
     <mergeCell ref="B66:B76"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="C66:C74"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A28:A51"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C28:C41"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B12:B27"/>
     <mergeCell ref="C130:C134"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B28:B46"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A138:A140"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9197,187 +9208,187 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="253" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="252" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="253" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="252" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="253" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="253" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="253" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="252" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="254" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="254" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="261"/>
+      <c r="D2" s="260"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="254" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="254" t="s">
         <v>340</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="D3" s="261"/>
+      <c r="D3" s="260"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="254" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="254" t="s">
         <v>345</v>
       </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="261"/>
+      <c r="D4" s="260"/>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="262" t="s">
         <v>348</v>
       </c>
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="262" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="261" t="s">
+      <c r="D5" s="260" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="254" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="254" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="258" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="260" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="254" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="254" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="257" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="D7" s="260" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="254" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="254" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="261"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="260"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="255" t="s">
+      <c r="A9" s="254" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="254" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="261"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="260"/>
     </row>
     <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="263" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="263" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="D10" s="266" t="s">
+      <c r="C10" s="258"/>
+      <c r="D10" s="265" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="264" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="264" t="s">
         <v>350</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="266" t="s">
+      <c r="D11" s="265" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="257" t="s">
+      <c r="B12" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="259"/>
-      <c r="D12" s="261"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="260"/>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="255" t="s">
+      <c r="A13" s="254" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="254" t="s">
         <v>341</v>
       </c>
-      <c r="C13" s="258" t="s">
+      <c r="C13" s="257" t="s">
         <v>341</v>
       </c>
-      <c r="D13" s="261" t="s">
+      <c r="D13" s="260" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="256" t="s">
+      <c r="A14" s="255" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="256" t="s">
+      <c r="B14" s="255" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="259"/>
-      <c r="D14" s="262" t="s">
+      <c r="C14" s="258"/>
+      <c r="D14" s="261" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="256" t="s">
+      <c r="A15" s="255" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="256" t="s">
+      <c r="B15" s="255" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="260" t="s">
+      <c r="C15" s="259" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="261" t="s">
+      <c r="D15" s="260" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9419,12 +9430,12 @@
       <c r="A2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="250" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="234" t="s">
         <v>232</v>
       </c>
       <c r="B3" t="s">
@@ -9467,7 +9478,7 @@
       <c r="A8" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="251" t="s">
+      <c r="B8" s="250" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9531,7 +9542,7 @@
       <c r="A16" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="250" t="s">
         <v>367</v>
       </c>
     </row>
@@ -9552,10 +9563,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="267" t="s">
+      <c r="B19" s="266" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9563,7 +9574,7 @@
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="252" t="s">
+      <c r="B20" s="251" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9587,7 +9598,7 @@
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="251" t="s">
+      <c r="B23" s="250" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9600,10 +9611,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="268" t="s">
+      <c r="A25" s="267" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="251" t="s">
+      <c r="B25" s="250" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9632,26 +9643,26 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="268" t="s">
+      <c r="A29" s="267" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="266" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="268" t="s">
+      <c r="A30" s="267" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="251" t="s">
+      <c r="B30" s="250" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="268" t="s">
+      <c r="A31" s="267" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="251" t="s">
+      <c r="B31" s="250" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9659,7 +9670,7 @@
       <c r="A32" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="252" t="s">
+      <c r="B32" s="251" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9667,7 +9678,7 @@
       <c r="A33" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="251" t="s">
+      <c r="B33" s="250" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9707,7 +9718,7 @@
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="251" t="s">
+      <c r="B38" s="250" t="s">
         <v>271</v>
       </c>
     </row>
@@ -9752,10 +9763,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="268" t="s">
+      <c r="A44" s="267" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="250" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9795,7 +9806,7 @@
       <c r="A49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="251" t="s">
+      <c r="B49" s="250" t="s">
         <v>552</v>
       </c>
     </row>
@@ -9811,7 +9822,7 @@
       <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="251" t="s">
+      <c r="B51" s="250" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9851,7 +9862,7 @@
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="251" t="s">
+      <c r="B56" s="250" t="s">
         <v>553</v>
       </c>
     </row>
@@ -9912,10 +9923,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="268" t="s">
+      <c r="A64" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="251" t="s">
+      <c r="B64" s="250" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9931,7 +9942,7 @@
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="251" t="s">
+      <c r="B66" s="250" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9952,18 +9963,18 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="268" t="s">
+      <c r="A69" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="251" t="s">
+      <c r="B69" s="250" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="268" t="s">
+      <c r="A70" s="267" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="251" t="s">
+      <c r="B70" s="250" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10019,7 +10030,7 @@
       <c r="A77" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="251" t="s">
+      <c r="B77" s="250" t="s">
         <v>275</v>
       </c>
     </row>
@@ -10059,7 +10070,7 @@
       <c r="A82" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B82" s="251" t="s">
+      <c r="B82" s="250" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10067,7 +10078,7 @@
       <c r="A83" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="B83" s="251" t="s">
+      <c r="B83" s="250" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10075,7 +10086,7 @@
       <c r="A84" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="251" t="s">
+      <c r="B84" s="250" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10083,7 +10094,7 @@
       <c r="A85" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="B85" s="251" t="s">
+      <c r="B85" s="250" t="s">
         <v>371</v>
       </c>
     </row>
@@ -10091,15 +10102,15 @@
       <c r="A86" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="251" t="s">
+      <c r="B86" s="250" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="251" t="s">
+      <c r="B87" s="250" t="s">
         <v>373</v>
       </c>
     </row>
@@ -10107,7 +10118,7 @@
       <c r="A88" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="251" t="s">
+      <c r="B88" s="250" t="s">
         <v>374</v>
       </c>
     </row>
@@ -10115,7 +10126,7 @@
       <c r="A89" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="251" t="s">
+      <c r="B89" s="250" t="s">
         <v>375</v>
       </c>
     </row>
@@ -10123,7 +10134,7 @@
       <c r="A90" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="251" t="s">
+      <c r="B90" s="250" t="s">
         <v>376</v>
       </c>
     </row>
@@ -10131,7 +10142,7 @@
       <c r="A91" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="251" t="s">
+      <c r="B91" s="250" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10139,7 +10150,7 @@
       <c r="A92" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="251" t="s">
+      <c r="B92" s="250" t="s">
         <v>377</v>
       </c>
     </row>
@@ -10147,7 +10158,7 @@
       <c r="A93" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="251" t="s">
+      <c r="B93" s="250" t="s">
         <v>378</v>
       </c>
     </row>
@@ -10155,7 +10166,7 @@
       <c r="A94" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="251" t="s">
+      <c r="B94" s="250" t="s">
         <v>379</v>
       </c>
     </row>
@@ -10163,15 +10174,15 @@
       <c r="A95" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="251" t="s">
+      <c r="B95" s="250" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="215" t="s">
+      <c r="A96" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="251" t="s">
+      <c r="B96" s="250" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10179,7 +10190,7 @@
       <c r="A97" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B97" s="251" t="s">
+      <c r="B97" s="250" t="s">
         <v>381</v>
       </c>
     </row>
@@ -10187,7 +10198,7 @@
       <c r="A98" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B98" s="251" t="s">
+      <c r="B98" s="250" t="s">
         <v>382</v>
       </c>
     </row>
@@ -10195,7 +10206,7 @@
       <c r="A99" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="252" t="s">
+      <c r="B99" s="251" t="s">
         <v>383</v>
       </c>
     </row>
@@ -10267,7 +10278,7 @@
       <c r="A6" t="s">
         <v>390</v>
       </c>
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="271" t="s">
         <v>418</v>
       </c>
     </row>
@@ -10275,7 +10286,7 @@
       <c r="A7" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="272" t="s">
+      <c r="B7" s="271" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10283,7 +10294,7 @@
       <c r="A8" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="272" t="s">
+      <c r="B8" s="271" t="s">
         <v>424</v>
       </c>
     </row>
@@ -10291,7 +10302,7 @@
       <c r="A9" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="271" t="s">
         <v>425</v>
       </c>
     </row>
@@ -10299,7 +10310,7 @@
       <c r="A10" t="s">
         <v>394</v>
       </c>
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="271" t="s">
         <v>419</v>
       </c>
     </row>
@@ -10307,7 +10318,7 @@
       <c r="A11" t="s">
         <v>395</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="271" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10315,7 +10326,7 @@
       <c r="A12" t="s">
         <v>396</v>
       </c>
-      <c r="B12" s="272" t="s">
+      <c r="B12" s="271" t="s">
         <v>421</v>
       </c>
     </row>
@@ -10323,7 +10334,7 @@
       <c r="A13" t="s">
         <v>397</v>
       </c>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="271" t="s">
         <v>422</v>
       </c>
     </row>
@@ -10331,7 +10342,7 @@
       <c r="A14" t="s">
         <v>398</v>
       </c>
-      <c r="B14" s="273" t="s">
+      <c r="B14" s="272" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10339,7 +10350,7 @@
       <c r="A15" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="273" t="s">
+      <c r="B15" s="272" t="s">
         <v>415</v>
       </c>
     </row>
@@ -10347,7 +10358,7 @@
       <c r="A16" t="s">
         <v>400</v>
       </c>
-      <c r="B16" s="273" t="s">
+      <c r="B16" s="272" t="s">
         <v>416</v>
       </c>
     </row>
@@ -10355,7 +10366,7 @@
       <c r="A17" t="s">
         <v>401</v>
       </c>
-      <c r="B17" s="273" t="s">
+      <c r="B17" s="272" t="s">
         <v>417</v>
       </c>
     </row>
@@ -10363,7 +10374,7 @@
       <c r="A18" t="s">
         <v>402</v>
       </c>
-      <c r="B18" s="272" t="s">
+      <c r="B18" s="271" t="s">
         <v>410</v>
       </c>
     </row>
@@ -10371,7 +10382,7 @@
       <c r="A19" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="272" t="s">
+      <c r="B19" s="271" t="s">
         <v>411</v>
       </c>
     </row>
@@ -10379,7 +10390,7 @@
       <c r="A20" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="272" t="s">
+      <c r="B20" s="271" t="s">
         <v>412</v>
       </c>
     </row>
@@ -10387,7 +10398,7 @@
       <c r="A21" t="s">
         <v>405</v>
       </c>
-      <c r="B21" s="272" t="s">
+      <c r="B21" s="271" t="s">
         <v>413</v>
       </c>
     </row>
@@ -10395,7 +10406,7 @@
       <c r="A22" t="s">
         <v>406</v>
       </c>
-      <c r="B22" s="270" t="s">
+      <c r="B22" s="269" t="s">
         <v>409</v>
       </c>
     </row>
@@ -10403,7 +10414,7 @@
       <c r="A23" t="s">
         <v>407</v>
       </c>
-      <c r="B23" s="271" t="s">
+      <c r="B23" s="270" t="s">
         <v>408</v>
       </c>
     </row>
@@ -10442,7 +10453,7 @@
       <c r="A2" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="268" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10450,7 +10461,7 @@
       <c r="A3" t="s">
         <v>431</v>
       </c>
-      <c r="B3" s="269" t="s">
+      <c r="B3" s="268" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10458,7 +10469,7 @@
       <c r="A4" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="268" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10466,7 +10477,7 @@
       <c r="A5" t="s">
         <v>433</v>
       </c>
-      <c r="B5" s="269" t="s">
+      <c r="B5" s="268" t="s">
         <v>531</v>
       </c>
     </row>
